--- a/이체정보.xlsx
+++ b/이체정보.xlsx
@@ -6,8 +6,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Sheet5" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Sheet6" sheetId="5" state="visible" r:id="rId5"/>
@@ -760,8 +760,8 @@
   </sheetPr>
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -858,129 +858,131 @@
       <c r="C2" s="17" t="n"/>
       <c r="D2" s="27" t="inlineStr">
         <is>
-          <t>헤로잼(복숭아)</t>
-        </is>
-      </c>
-      <c r="E2" s="28" t="inlineStr">
-        <is>
-          <t>송누리</t>
-        </is>
-      </c>
-      <c r="F2" s="28" t="inlineStr">
-        <is>
-          <t>010-6676-4084</t>
-        </is>
-      </c>
-      <c r="G2" s="28" t="inlineStr">
-        <is>
-          <t>경기도 포천시 소홀읍 호국로 429번길 27 미래홈타운 102동 401호</t>
-        </is>
-      </c>
-      <c r="H2" s="28" t="inlineStr">
-        <is>
-          <t>농협 3510088021683 송누리</t>
-        </is>
-      </c>
-      <c r="I2" s="28" t="inlineStr">
-        <is>
-          <t>960131-217401</t>
-        </is>
-      </c>
-      <c r="J2" s="29" t="inlineStr">
-        <is>
-          <t>10900</t>
+          <t>헛개차</t>
+        </is>
+      </c>
+      <c r="E2" s="40" t="inlineStr">
+        <is>
+          <t>최지원</t>
+        </is>
+      </c>
+      <c r="F2" s="40" t="inlineStr">
+        <is>
+          <t>010-2343-1739</t>
+        </is>
+      </c>
+      <c r="G2" s="40" t="inlineStr">
+        <is>
+          <t>서울특별시 성북구 장위동 320 래미안장위퍼스트하이 502동 803호</t>
+        </is>
+      </c>
+      <c r="H2" s="40" t="inlineStr">
+        <is>
+          <t>하나은행/620238239229/최지원</t>
+        </is>
+      </c>
+      <c r="I2" s="40" t="inlineStr">
+        <is>
+          <t>12100107321953</t>
+        </is>
+      </c>
+      <c r="J2" s="41" t="inlineStr">
+        <is>
+          <t>16560</t>
         </is>
       </c>
       <c r="K2" s="28" t="n"/>
-      <c r="L2" s="28" t="n"/>
+      <c r="L2" s="30" t="n"/>
       <c r="M2" s="28" t="n"/>
       <c r="N2" s="28" t="n"/>
       <c r="O2" s="28" t="n"/>
     </row>
-    <row r="3" ht="17.25" customHeight="1" s="2" thickBot="1">
+    <row r="3" ht="26.25" customHeight="1" s="2" thickBot="1">
       <c r="A3" s="16" t="n"/>
       <c r="B3" s="17" t="n"/>
       <c r="C3" s="17" t="n"/>
       <c r="D3" s="27" t="inlineStr">
         <is>
-          <t>헤로잼(딸기)</t>
+          <t>헛개차</t>
         </is>
       </c>
       <c r="E3" s="28" t="inlineStr">
         <is>
-          <t>신승희</t>
+          <t>김병준(이현진)</t>
         </is>
       </c>
       <c r="F3" s="28" t="inlineStr">
         <is>
-          <t>010-6383-7446</t>
+          <t>010-5319-6863</t>
         </is>
       </c>
       <c r="G3" s="28" t="inlineStr">
         <is>
-          <t>경상남도 김해시 관동동 1120 죽림마을동원로얄듀크아파트 14단지 1403동 1502호</t>
+          <t>경기도 시흥시 중심상가로 248 610동 706호(정왕동주공6단지아파트)</t>
         </is>
       </c>
       <c r="H3" s="28" t="inlineStr">
         <is>
-          <t>농협 484-12-091171 신승희</t>
-        </is>
-      </c>
-      <c r="I3" s="28" t="inlineStr">
-        <is>
-          <t>851111-2090615</t>
+          <t>신한은행110372644270이현진</t>
+        </is>
+      </c>
+      <c r="I3" s="29" t="inlineStr">
+        <is>
+          <t>890520 -  2177511</t>
         </is>
       </c>
       <c r="J3" s="29" t="inlineStr">
         <is>
-          <t>6740</t>
-        </is>
-      </c>
+          <t>16560</t>
+        </is>
+      </c>
+      <c r="K3" s="28" t="n"/>
       <c r="L3" s="28" t="n"/>
       <c r="M3" s="28" t="n"/>
       <c r="N3" s="28" t="n"/>
       <c r="O3" s="28" t="n"/>
     </row>
-    <row r="4" ht="17.25" customHeight="1" s="2" thickBot="1">
+    <row r="4" ht="26.25" customHeight="1" s="2" thickBot="1">
       <c r="A4" s="16" t="n"/>
       <c r="B4" s="17" t="n"/>
       <c r="C4" s="17" t="n"/>
       <c r="D4" s="27" t="inlineStr">
         <is>
-          <t>헤로잼(딸기)</t>
+          <t>헛개차</t>
         </is>
       </c>
       <c r="E4" s="28" t="inlineStr">
         <is>
-          <t>정주영</t>
+          <t>이재진(송승희)</t>
         </is>
       </c>
       <c r="F4" s="28" t="inlineStr">
         <is>
-          <t>010-6252-2747</t>
+          <t>010-2687-6226</t>
         </is>
       </c>
       <c r="G4" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve">서울특별시 강북구 번동 4117-66 보람팰리스 402호 </t>
+          <t>서울특별시 관악구 조원로 25 신림동 힐스테이트 관악뉴포레 106동 805호</t>
         </is>
       </c>
       <c r="H4" s="28" t="inlineStr">
         <is>
-          <t>하나은행01062522747707 정주영</t>
+          <t>우리은행 1002-451-793658 송승희</t>
         </is>
       </c>
       <c r="I4" s="28" t="inlineStr">
         <is>
-          <t>880608  2029531</t>
+          <t>931111-2019310</t>
         </is>
       </c>
       <c r="J4" s="29" t="inlineStr">
         <is>
-          <t>6740</t>
-        </is>
-      </c>
-      <c r="L4" s="28" t="n"/>
+          <t>16560</t>
+        </is>
+      </c>
+      <c r="K4" s="28" t="n"/>
+      <c r="L4" s="30" t="n"/>
       <c r="M4" s="28" t="n"/>
       <c r="N4" s="28" t="n"/>
       <c r="O4" s="28" t="n"/>
@@ -989,41 +991,14 @@
       <c r="A5" s="16" t="n"/>
       <c r="B5" s="17" t="n"/>
       <c r="C5" s="25" t="n"/>
-      <c r="D5" s="27" t="inlineStr">
-        <is>
-          <t>헤로잼(딸기)</t>
-        </is>
-      </c>
-      <c r="E5" s="28" t="inlineStr">
-        <is>
-          <t>송누리</t>
-        </is>
-      </c>
-      <c r="F5" s="28" t="inlineStr">
-        <is>
-          <t>010-6676-4084</t>
-        </is>
-      </c>
-      <c r="G5" s="28" t="inlineStr">
-        <is>
-          <t>경기도 포천시 소홀읍 호국로 429번길 27 미래홈타운 102동 401호</t>
-        </is>
-      </c>
-      <c r="H5" s="28" t="inlineStr">
-        <is>
-          <t>농협 3510088021683 송누리</t>
-        </is>
-      </c>
-      <c r="I5" s="28" t="inlineStr">
-        <is>
-          <t>960131-217401</t>
-        </is>
-      </c>
-      <c r="J5" s="29" t="inlineStr">
-        <is>
-          <t>6740</t>
-        </is>
-      </c>
+      <c r="D5" s="27" t="n"/>
+      <c r="E5" s="28" t="n"/>
+      <c r="F5" s="28" t="n"/>
+      <c r="G5" s="28" t="n"/>
+      <c r="H5" s="28" t="n"/>
+      <c r="I5" s="28" t="n"/>
+      <c r="J5" s="29" t="n"/>
+      <c r="K5" s="28" t="n"/>
       <c r="L5" s="28" t="n"/>
       <c r="M5" s="28" t="n"/>
       <c r="N5" s="28" t="n"/>
@@ -1036,10 +1011,11 @@
       <c r="D6" s="27" t="n"/>
       <c r="E6" s="28" t="n"/>
       <c r="F6" s="28" t="n"/>
-      <c r="G6" s="28" t="n"/>
+      <c r="G6" s="42" t="n"/>
       <c r="H6" s="28" t="n"/>
       <c r="I6" s="28" t="n"/>
       <c r="J6" s="29" t="n"/>
+      <c r="K6" s="28" t="n"/>
       <c r="L6" s="28" t="n"/>
       <c r="M6" s="28" t="n"/>
       <c r="N6" s="28" t="n"/>
@@ -1051,26 +1027,26 @@
       <c r="C7" s="25" t="n"/>
       <c r="D7" s="27" t="n"/>
       <c r="E7" s="28" t="n"/>
-      <c r="F7" s="30" t="n"/>
-      <c r="G7" s="30" t="n"/>
+      <c r="F7" s="43" t="n"/>
+      <c r="G7" s="44" t="n"/>
       <c r="H7" s="28" t="n"/>
       <c r="I7" s="28" t="n"/>
       <c r="J7" s="29" t="n"/>
       <c r="K7" s="28" t="n"/>
-      <c r="L7" s="28" t="n"/>
+      <c r="L7" s="30" t="n"/>
       <c r="M7" s="28" t="n"/>
       <c r="N7" s="28" t="n"/>
       <c r="O7" s="28" t="n"/>
     </row>
-    <row r="8" ht="17.25" customHeight="1" s="2" thickBot="1">
+    <row r="8" ht="26.25" customHeight="1" s="2" thickBot="1">
       <c r="A8" s="16" t="n"/>
       <c r="B8" s="17" t="n"/>
       <c r="C8" s="25" t="n"/>
       <c r="D8" s="27" t="n"/>
       <c r="E8" s="28" t="n"/>
-      <c r="F8" s="30" t="n"/>
-      <c r="G8" s="30" t="n"/>
-      <c r="H8" s="28" t="n"/>
+      <c r="F8" s="43" t="n"/>
+      <c r="G8" s="44" t="n"/>
+      <c r="H8" s="44" t="n"/>
       <c r="I8" s="28" t="n"/>
       <c r="J8" s="29" t="n"/>
       <c r="K8" s="28" t="n"/>
@@ -1085,13 +1061,13 @@
       <c r="C9" s="25" t="n"/>
       <c r="D9" s="27" t="n"/>
       <c r="E9" s="28" t="n"/>
-      <c r="F9" s="30" t="n"/>
-      <c r="G9" s="30" t="n"/>
+      <c r="F9" s="28" t="n"/>
+      <c r="G9" s="28" t="n"/>
       <c r="H9" s="28" t="n"/>
       <c r="I9" s="28" t="n"/>
       <c r="J9" s="29" t="n"/>
       <c r="K9" s="28" t="n"/>
-      <c r="L9" s="28" t="n"/>
+      <c r="L9" s="30" t="n"/>
       <c r="M9" s="28" t="n"/>
       <c r="N9" s="28" t="n"/>
       <c r="O9" s="28" t="n"/>
@@ -1102,33 +1078,33 @@
       <c r="C10" s="19" t="n"/>
       <c r="D10" s="27" t="n"/>
       <c r="E10" s="28" t="n"/>
-      <c r="F10" s="30" t="n"/>
-      <c r="G10" s="30" t="n"/>
+      <c r="F10" s="28" t="n"/>
+      <c r="G10" s="28" t="n"/>
       <c r="H10" s="28" t="n"/>
       <c r="I10" s="28" t="n"/>
       <c r="J10" s="29" t="n"/>
-      <c r="K10" s="28" t="n"/>
-      <c r="L10" s="28" t="n"/>
-      <c r="M10" s="28" t="n"/>
-      <c r="N10" s="28" t="n"/>
+      <c r="K10" s="30" t="n"/>
+      <c r="L10" s="30" t="n"/>
+      <c r="M10" s="30" t="n"/>
+      <c r="N10" s="30" t="n"/>
       <c r="O10" s="28" t="n"/>
     </row>
     <row r="11" ht="17.25" customHeight="1" s="2" thickBot="1">
       <c r="A11" s="16" t="n"/>
       <c r="B11" s="18" t="n"/>
       <c r="C11" s="19" t="n"/>
-      <c r="D11" s="36" t="n"/>
-      <c r="E11" s="36" t="n"/>
-      <c r="F11" s="39" t="n"/>
-      <c r="G11" s="39" t="n"/>
-      <c r="H11" s="36" t="n"/>
-      <c r="I11" s="36" t="n"/>
-      <c r="J11" s="37" t="n"/>
-      <c r="K11" s="36" t="n"/>
-      <c r="L11" s="36" t="n"/>
-      <c r="M11" s="36" t="n"/>
-      <c r="N11" s="36" t="n"/>
-      <c r="O11" s="36" t="n"/>
+      <c r="D11" s="45" t="n"/>
+      <c r="E11" s="45" t="n"/>
+      <c r="F11" s="45" t="n"/>
+      <c r="G11" s="45" t="n"/>
+      <c r="H11" s="45" t="n"/>
+      <c r="I11" s="45" t="n"/>
+      <c r="J11" s="46" t="n"/>
+      <c r="K11" s="26" t="n"/>
+      <c r="L11" s="26" t="n"/>
+      <c r="M11" s="26" t="n"/>
+      <c r="N11" s="26" t="n"/>
+      <c r="O11" s="26" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1760,37 +1736,37 @@
       <c r="C2" s="17" t="n"/>
       <c r="D2" s="47" t="inlineStr">
         <is>
-          <t>헛개차</t>
+          <t>비빔칩</t>
         </is>
       </c>
       <c r="E2" s="28" t="inlineStr">
         <is>
-          <t>정미선</t>
+          <t>하은경</t>
         </is>
       </c>
       <c r="F2" s="28" t="inlineStr">
         <is>
-          <t>010-9369-1024</t>
+          <t>010-2850-1033</t>
         </is>
       </c>
       <c r="G2" s="28" t="inlineStr">
         <is>
-          <t>서울특별시 강남구 봉은사로5길 24 202호(논현동논현동빌라)</t>
+          <t>경상북도 구미시 고아읍 들성로9길 22 미도힐스 801호</t>
         </is>
       </c>
       <c r="H2" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve">신한은행 110-409-182743 정미선 </t>
+          <t>신한은행 370-12-077565 하은경</t>
         </is>
       </c>
       <c r="I2" s="28" t="inlineStr">
         <is>
-          <t>751024-2047420</t>
+          <t>771113-2057511</t>
         </is>
       </c>
       <c r="J2" s="29" t="inlineStr">
         <is>
-          <t>15330</t>
+          <t>2420</t>
         </is>
       </c>
       <c r="N2" s="38" t="n"/>
@@ -1802,37 +1778,37 @@
       <c r="C3" s="17" t="n"/>
       <c r="D3" s="47" t="inlineStr">
         <is>
-          <t>헛개차</t>
+          <t>비빔칩</t>
         </is>
       </c>
       <c r="E3" s="28" t="inlineStr">
         <is>
-          <t>신승희</t>
+          <t>이일주(하은경)</t>
         </is>
       </c>
       <c r="F3" s="28" t="inlineStr">
         <is>
-          <t>010-6383-7446</t>
+          <t>010-6443-1033</t>
         </is>
       </c>
       <c r="G3" s="28" t="inlineStr">
         <is>
-          <t>경상남도 김해시 관동동 1120 죽림마을동원로얄듀크아파트 14단지 1403동 1502호</t>
+          <t>경상북도 구미시 고아읍 문장로22길 5-19 201호 기탄</t>
         </is>
       </c>
       <c r="H3" s="28" t="inlineStr">
         <is>
-          <t>농협 484-12-091171 신승희</t>
+          <t>신한은행 370-12-077565 하은경</t>
         </is>
       </c>
       <c r="I3" s="28" t="inlineStr">
         <is>
-          <t>851111-2090615</t>
+          <t>771113-2057511</t>
         </is>
       </c>
       <c r="J3" s="29" t="inlineStr">
         <is>
-          <t>15330</t>
+          <t>2420</t>
         </is>
       </c>
       <c r="K3" s="28" t="n"/>
@@ -1847,37 +1823,37 @@
       <c r="C4" s="17" t="n"/>
       <c r="D4" s="27" t="inlineStr">
         <is>
-          <t>헛개차</t>
+          <t>비빔칩</t>
         </is>
       </c>
       <c r="E4" s="28" t="inlineStr">
         <is>
-          <t>송누리</t>
+          <t>하용익(하은경)</t>
         </is>
       </c>
       <c r="F4" s="28" t="inlineStr">
         <is>
-          <t>010-6676-4084</t>
+          <t>010-2316-1033</t>
         </is>
       </c>
       <c r="G4" s="28" t="inlineStr">
         <is>
-          <t>경기도 포천시 소홀읍 호국로 429번길 27 미래홈타운 102동 401호</t>
+          <t>서울특별시 송파구 송이로32길 37 문정푸르지오 2단지 202-405</t>
         </is>
       </c>
       <c r="H4" s="28" t="inlineStr">
         <is>
-          <t>농협 3510088021683 송누리</t>
+          <t>신한은행 370-12-077565 하은경</t>
         </is>
       </c>
       <c r="I4" s="28" t="inlineStr">
         <is>
-          <t>960131-217401</t>
+          <t>771113-2057511</t>
         </is>
       </c>
       <c r="J4" s="29" t="inlineStr">
         <is>
-          <t>15330</t>
+          <t>2420</t>
         </is>
       </c>
       <c r="K4" s="28" t="n"/>
@@ -1892,37 +1868,37 @@
       <c r="C5" s="25" t="n"/>
       <c r="D5" s="27" t="inlineStr">
         <is>
-          <t>헛개차</t>
+          <t>비빔칩</t>
         </is>
       </c>
       <c r="E5" s="28" t="inlineStr">
         <is>
-          <t>강한별(박은영)</t>
+          <t>하윤경(하은경)</t>
         </is>
       </c>
       <c r="F5" s="28" t="inlineStr">
         <is>
-          <t>010-5878-1031</t>
+          <t>010-3996-1033</t>
         </is>
       </c>
       <c r="G5" s="28" t="inlineStr">
         <is>
-          <t>광주광역시 광산구 월곡반월로48번길25(월곡동)</t>
+          <t>서울특별시 강ㄴ마구 일원동 688 상록 스타힐스 905동 303호</t>
         </is>
       </c>
       <c r="H5" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 신한은행 110480-632856 박은영</t>
+          <t>신한은행 370-12-077565 하은경</t>
         </is>
       </c>
       <c r="I5" s="29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 930603-2552821</t>
+          <t>771113-2057511</t>
         </is>
       </c>
       <c r="J5" s="29" t="inlineStr">
         <is>
-          <t>16560</t>
+          <t>2420</t>
         </is>
       </c>
       <c r="K5" s="28" t="n"/>
@@ -1937,37 +1913,37 @@
       <c r="C6" s="25" t="n"/>
       <c r="D6" s="27" t="inlineStr">
         <is>
-          <t>헛개차</t>
+          <t>비빔칩</t>
         </is>
       </c>
       <c r="E6" s="28" t="inlineStr">
         <is>
-          <t>유해민</t>
+          <t>구혜진</t>
         </is>
       </c>
       <c r="F6" s="28" t="inlineStr">
         <is>
-          <t>010-3854-0116</t>
+          <t>010-6532-3315</t>
         </is>
       </c>
       <c r="G6" s="28" t="inlineStr">
         <is>
-          <t>경기도 용인시 기흥구 보라동 392-16 토미하우스BC토미하수스 B동 502호</t>
+          <t>부산광역시 해운대구 양운로37번길 11 103동 404호(좌동 현대아파트)</t>
         </is>
       </c>
       <c r="H6" s="28" t="inlineStr">
         <is>
-          <t>국민은행94290200037658 유해민</t>
+          <t>대구은행 /222-08-011656-9 /구혜진</t>
         </is>
       </c>
       <c r="I6" s="28" t="inlineStr">
         <is>
-          <t>970402-1167719</t>
+          <t>870405-2797912</t>
         </is>
       </c>
       <c r="J6" s="29" t="inlineStr">
         <is>
-          <t>16560</t>
+          <t>2420</t>
         </is>
       </c>
       <c r="K6" s="28" t="n"/>
@@ -1982,37 +1958,37 @@
       <c r="C7" s="25" t="n"/>
       <c r="D7" s="27" t="inlineStr">
         <is>
-          <t>헛개차</t>
+          <t>비빔칩</t>
         </is>
       </c>
       <c r="E7" s="28" t="inlineStr">
         <is>
-          <t>방종춘</t>
+          <t>강진희(강경희)</t>
         </is>
       </c>
       <c r="F7" s="28" t="inlineStr">
         <is>
-          <t>010-9521-2754</t>
+          <t>010-5751-7544</t>
         </is>
       </c>
       <c r="G7" s="28" t="inlineStr">
         <is>
-          <t>광주광역시 남구 용대로183번안길 4 2층 (방림동)</t>
+          <t xml:space="preserve">인천광역시 남동구 구월동 1527 더블루시티 614호 </t>
         </is>
       </c>
       <c r="H7" s="28" t="inlineStr">
         <is>
-          <t>농협 3520247748193 방종춘</t>
+          <t>농협/3524347112243/강경희</t>
         </is>
       </c>
       <c r="I7" s="28" t="inlineStr">
         <is>
-          <t>930101-1644219</t>
+          <t>920926-2551017</t>
         </is>
       </c>
       <c r="J7" s="29" t="inlineStr">
         <is>
-          <t>16560</t>
+          <t>2420</t>
         </is>
       </c>
       <c r="K7" s="28" t="n"/>
@@ -2027,37 +2003,37 @@
       <c r="C8" s="25" t="n"/>
       <c r="D8" s="27" t="inlineStr">
         <is>
-          <t>헛개차</t>
+          <t>비빔칩</t>
         </is>
       </c>
       <c r="E8" s="28" t="inlineStr">
         <is>
-          <t>김서하</t>
+          <t>이가영</t>
         </is>
       </c>
       <c r="F8" s="28" t="inlineStr">
         <is>
-          <t>010-2712-4371</t>
+          <t>010-6416-4651</t>
         </is>
       </c>
       <c r="G8" s="28" t="inlineStr">
         <is>
-          <t>대구광역시 달서구 유천동 605 대구월배아이파크 111동 2004호</t>
+          <t>경기도 용인시 수지구 풍덕천로 52 808동 1001호</t>
         </is>
       </c>
       <c r="H8" s="28" t="inlineStr">
         <is>
-          <t>미래에셋400868573860김서하</t>
+          <t>국민은행 / 20390204123128 / 이가영</t>
         </is>
       </c>
       <c r="I8" s="28" t="inlineStr">
         <is>
-          <t>940831-2768314</t>
+          <t xml:space="preserve"> 911220-2157611</t>
         </is>
       </c>
       <c r="J8" s="29" t="inlineStr">
         <is>
-          <t>16560</t>
+          <t>2420</t>
         </is>
       </c>
       <c r="K8" s="28" t="n"/>
@@ -2072,37 +2048,37 @@
       <c r="C9" s="25" t="n"/>
       <c r="D9" s="27" t="inlineStr">
         <is>
-          <t>헛개차</t>
+          <t>비빔칩</t>
         </is>
       </c>
       <c r="E9" s="28" t="inlineStr">
         <is>
-          <t>정연수(박은영)</t>
+          <t>오수정(김서하)</t>
         </is>
       </c>
       <c r="F9" s="28" t="inlineStr">
         <is>
-          <t>010-5878-1031</t>
+          <t>010-9112-5218</t>
         </is>
       </c>
       <c r="G9" s="28" t="inlineStr">
         <is>
-          <t>광주광역시 광산구 월곡반월로 48번길 25 월곡동 1층</t>
+          <t xml:space="preserve">대구광역시 달서구 유천동 605 대구워배아이파크 111동 2004호 </t>
         </is>
       </c>
       <c r="H9" s="28" t="inlineStr">
         <is>
-          <t>신한은행 110480-632856 박은영</t>
+          <t>미래에셋400868573860김서하</t>
         </is>
       </c>
       <c r="I9" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 930603-2552821</t>
+          <t>940831-2768314</t>
         </is>
       </c>
       <c r="J9" s="29" t="inlineStr">
         <is>
-          <t>16560</t>
+          <t>2420</t>
         </is>
       </c>
       <c r="K9" s="28" t="n"/>
@@ -2117,37 +2093,37 @@
       <c r="C10" s="19" t="n"/>
       <c r="D10" s="27" t="inlineStr">
         <is>
-          <t>헛개차</t>
+          <t>비빔칩</t>
         </is>
       </c>
       <c r="E10" s="28" t="inlineStr">
         <is>
-          <t>곽주선</t>
+          <t>김지혜(김서하)</t>
         </is>
       </c>
       <c r="F10" s="28" t="inlineStr">
         <is>
-          <t>010-4419-1152</t>
+          <t>010-2712-4371</t>
         </is>
       </c>
       <c r="G10" s="28" t="inlineStr">
         <is>
-          <t>울산광역시 남구 달동 1338-2 송빌라트 303호</t>
+          <t xml:space="preserve">대구광역시 달서구 유천동 605 대구워배아이파크 111동 2004호 </t>
         </is>
       </c>
       <c r="H10" s="28" t="inlineStr">
         <is>
-          <t>신한은행 110-494-389765 곽주선</t>
+          <t>미래에셋400868573860김서하</t>
         </is>
       </c>
       <c r="I10" s="28" t="inlineStr">
         <is>
-          <t>950829-2853516</t>
+          <t>940831-2768314</t>
         </is>
       </c>
       <c r="J10" s="29" t="inlineStr">
         <is>
-          <t>16560</t>
+          <t>2420</t>
         </is>
       </c>
       <c r="K10" s="28" t="n"/>
@@ -2162,37 +2138,37 @@
       <c r="C11" s="19" t="n"/>
       <c r="D11" s="36" t="inlineStr">
         <is>
-          <t>헤로잼(복숭아)</t>
+          <t>비빔칩</t>
         </is>
       </c>
       <c r="E11" s="36" t="inlineStr">
         <is>
-          <t>신승희</t>
+          <t>김병준(이현진)</t>
         </is>
       </c>
       <c r="F11" s="36" t="inlineStr">
         <is>
-          <t>010-6383-7446</t>
+          <t>010-5319-6863</t>
         </is>
       </c>
       <c r="G11" s="39" t="inlineStr">
         <is>
-          <t>경상남도 김해시 관동동 1120 죽림마을동원로얄듀크아파트 14단지 1403동 1502호</t>
+          <t>경기도 시흥시 중심상가로 248 610동 706호(정왕동주공6단지아파트)</t>
         </is>
       </c>
       <c r="H11" s="36" t="inlineStr">
         <is>
-          <t>농협 484-12-091171 신승희</t>
+          <t>신한은행110372644270이현진</t>
         </is>
       </c>
       <c r="I11" s="39" t="inlineStr">
         <is>
-          <t>851111-2090615</t>
+          <t>890520 -  2177511</t>
         </is>
       </c>
       <c r="J11" s="37" t="inlineStr">
         <is>
-          <t>10900</t>
+          <t>2420</t>
         </is>
       </c>
       <c r="K11" s="36" t="n"/>
@@ -2215,8 +2191,8 @@
   </sheetPr>
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -2313,75 +2289,129 @@
       <c r="C2" s="17" t="n"/>
       <c r="D2" s="27" t="inlineStr">
         <is>
-          <t>헤로잼(딸기)</t>
-        </is>
-      </c>
-      <c r="E2" s="40" t="inlineStr">
-        <is>
-          <t>한승민(최보화)</t>
-        </is>
-      </c>
-      <c r="F2" s="40" t="inlineStr">
-        <is>
-          <t>010-5142-2365</t>
-        </is>
-      </c>
-      <c r="G2" s="40" t="inlineStr">
-        <is>
-          <t>부산광역시 부산진구 개금동 618-2 개금현대아이아파트 208동 1404호</t>
-        </is>
-      </c>
-      <c r="H2" s="40" t="inlineStr">
-        <is>
-          <t>우리은행/1002-339-538116 최보화</t>
-        </is>
-      </c>
-      <c r="I2" s="40" t="inlineStr">
-        <is>
-          <t>890716-2233113</t>
-        </is>
-      </c>
-      <c r="J2" s="41" t="inlineStr">
-        <is>
-          <t>6740</t>
+          <t>틈새라면스프</t>
+        </is>
+      </c>
+      <c r="E2" s="28" t="inlineStr">
+        <is>
+          <t>강진희(강경희)</t>
+        </is>
+      </c>
+      <c r="F2" s="28" t="inlineStr">
+        <is>
+          <t>010-5751-7544</t>
+        </is>
+      </c>
+      <c r="G2" s="28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">인천광역시 남동구 구월동 1527 더블루시티 614호 </t>
+        </is>
+      </c>
+      <c r="H2" s="28" t="inlineStr">
+        <is>
+          <t>농협/3524347112243/강경희</t>
+        </is>
+      </c>
+      <c r="I2" s="28" t="inlineStr">
+        <is>
+          <t>920926-2551017</t>
+        </is>
+      </c>
+      <c r="J2" s="29" t="inlineStr">
+        <is>
+          <t>6000</t>
         </is>
       </c>
       <c r="K2" s="28" t="n"/>
-      <c r="L2" s="30" t="n"/>
+      <c r="L2" s="28" t="n"/>
       <c r="M2" s="28" t="n"/>
       <c r="N2" s="28" t="n"/>
       <c r="O2" s="28" t="n"/>
     </row>
-    <row r="3" ht="26.25" customHeight="1" s="2" thickBot="1">
+    <row r="3" ht="17.25" customHeight="1" s="2" thickBot="1">
       <c r="A3" s="16" t="n"/>
       <c r="B3" s="17" t="n"/>
       <c r="C3" s="17" t="n"/>
-      <c r="D3" s="27" t="n"/>
-      <c r="E3" s="28" t="n"/>
-      <c r="F3" s="28" t="n"/>
-      <c r="G3" s="28" t="n"/>
-      <c r="H3" s="28" t="n"/>
-      <c r="I3" s="29" t="n"/>
-      <c r="J3" s="29" t="n"/>
-      <c r="K3" s="28" t="n"/>
+      <c r="D3" s="27" t="inlineStr">
+        <is>
+          <t>헛개차</t>
+        </is>
+      </c>
+      <c r="E3" s="28" t="inlineStr">
+        <is>
+          <t>송주연</t>
+        </is>
+      </c>
+      <c r="F3" s="28" t="inlineStr">
+        <is>
+          <t>010-5004-1140</t>
+        </is>
+      </c>
+      <c r="G3" s="28" t="inlineStr">
+        <is>
+          <t>서울특별시 강동구 양재대로103길 15 403호(성내동)</t>
+        </is>
+      </c>
+      <c r="H3" s="28" t="inlineStr">
+        <is>
+          <t>우리 1002-151-686068 송주연</t>
+        </is>
+      </c>
+      <c r="I3" s="28" t="inlineStr">
+        <is>
+          <t>970625-2024716</t>
+        </is>
+      </c>
+      <c r="J3" s="29" t="inlineStr">
+        <is>
+          <t>16560</t>
+        </is>
+      </c>
       <c r="L3" s="28" t="n"/>
       <c r="M3" s="28" t="n"/>
       <c r="N3" s="28" t="n"/>
       <c r="O3" s="28" t="n"/>
     </row>
-    <row r="4" ht="26.25" customHeight="1" s="2" thickBot="1">
+    <row r="4" ht="17.25" customHeight="1" s="2" thickBot="1">
       <c r="A4" s="16" t="n"/>
       <c r="B4" s="17" t="n"/>
       <c r="C4" s="17" t="n"/>
-      <c r="D4" s="27" t="n"/>
-      <c r="E4" s="28" t="n"/>
-      <c r="F4" s="28" t="n"/>
-      <c r="G4" s="28" t="n"/>
-      <c r="H4" s="28" t="n"/>
-      <c r="I4" s="28" t="n"/>
-      <c r="J4" s="29" t="n"/>
-      <c r="K4" s="28" t="n"/>
-      <c r="L4" s="30" t="n"/>
+      <c r="D4" s="27" t="inlineStr">
+        <is>
+          <t>헛개차</t>
+        </is>
+      </c>
+      <c r="E4" s="28" t="inlineStr">
+        <is>
+          <t>강정민</t>
+        </is>
+      </c>
+      <c r="F4" s="28" t="inlineStr">
+        <is>
+          <t>010-9395-0228</t>
+        </is>
+      </c>
+      <c r="G4" s="28" t="inlineStr">
+        <is>
+          <t>부산광역시 동래구 동ㄹ로57번길 94 204-2204(명륜동 힐스테이트 명륜 트라디움)</t>
+        </is>
+      </c>
+      <c r="H4" s="28" t="inlineStr">
+        <is>
+          <t>우리1002056508858강정민</t>
+        </is>
+      </c>
+      <c r="I4" s="28" t="inlineStr">
+        <is>
+          <t>8702131125315</t>
+        </is>
+      </c>
+      <c r="J4" s="29" t="inlineStr">
+        <is>
+          <t>16560</t>
+        </is>
+      </c>
+      <c r="L4" s="28" t="n"/>
       <c r="M4" s="28" t="n"/>
       <c r="N4" s="28" t="n"/>
       <c r="O4" s="28" t="n"/>
@@ -2390,14 +2420,41 @@
       <c r="A5" s="16" t="n"/>
       <c r="B5" s="17" t="n"/>
       <c r="C5" s="25" t="n"/>
-      <c r="D5" s="27" t="n"/>
-      <c r="E5" s="28" t="n"/>
-      <c r="F5" s="28" t="n"/>
-      <c r="G5" s="28" t="n"/>
-      <c r="H5" s="28" t="n"/>
-      <c r="I5" s="28" t="n"/>
-      <c r="J5" s="29" t="n"/>
-      <c r="K5" s="28" t="n"/>
+      <c r="D5" s="27" t="inlineStr">
+        <is>
+          <t>헛개차</t>
+        </is>
+      </c>
+      <c r="E5" s="28" t="inlineStr">
+        <is>
+          <t>양혜선</t>
+        </is>
+      </c>
+      <c r="F5" s="28" t="inlineStr">
+        <is>
+          <t>010-3279-3027</t>
+        </is>
+      </c>
+      <c r="G5" s="28" t="inlineStr">
+        <is>
+          <t>경기도 용인시 수지구 풍덕천동 700-1 현대아파트 101동 902호</t>
+        </is>
+      </c>
+      <c r="H5" s="28" t="inlineStr">
+        <is>
+          <t>국민은행 92323519743양혜선</t>
+        </is>
+      </c>
+      <c r="I5" s="28" t="inlineStr">
+        <is>
+          <t>930418-2024018</t>
+        </is>
+      </c>
+      <c r="J5" s="29" t="inlineStr">
+        <is>
+          <t>16560</t>
+        </is>
+      </c>
       <c r="L5" s="28" t="n"/>
       <c r="M5" s="28" t="n"/>
       <c r="N5" s="28" t="n"/>
@@ -2407,14 +2464,41 @@
       <c r="A6" s="16" t="n"/>
       <c r="B6" s="17" t="n"/>
       <c r="C6" s="25" t="n"/>
-      <c r="D6" s="27" t="n"/>
-      <c r="E6" s="28" t="n"/>
-      <c r="F6" s="28" t="n"/>
-      <c r="G6" s="42" t="n"/>
-      <c r="H6" s="28" t="n"/>
-      <c r="I6" s="28" t="n"/>
-      <c r="J6" s="29" t="n"/>
-      <c r="K6" s="28" t="n"/>
+      <c r="D6" s="27" t="inlineStr">
+        <is>
+          <t>헛개차</t>
+        </is>
+      </c>
+      <c r="E6" s="28" t="inlineStr">
+        <is>
+          <t>하용익(하은경)</t>
+        </is>
+      </c>
+      <c r="F6" s="28" t="inlineStr">
+        <is>
+          <t>010-2316-1033</t>
+        </is>
+      </c>
+      <c r="G6" s="28" t="inlineStr">
+        <is>
+          <t>서울특별시 송파구 송이로32길 37 문정푸르지오 2단지 202-405 (문정동문정푸르지오)</t>
+        </is>
+      </c>
+      <c r="H6" s="28" t="inlineStr">
+        <is>
+          <t>신한은행 370-12-077565 하은경</t>
+        </is>
+      </c>
+      <c r="I6" s="28" t="inlineStr">
+        <is>
+          <t>771113-2057511</t>
+        </is>
+      </c>
+      <c r="J6" s="29" t="inlineStr">
+        <is>
+          <t>16560</t>
+        </is>
+      </c>
       <c r="L6" s="28" t="n"/>
       <c r="M6" s="28" t="n"/>
       <c r="N6" s="28" t="n"/>
@@ -2424,30 +2508,86 @@
       <c r="A7" s="16" t="n"/>
       <c r="B7" s="17" t="n"/>
       <c r="C7" s="25" t="n"/>
-      <c r="D7" s="27" t="n"/>
-      <c r="E7" s="28" t="n"/>
-      <c r="F7" s="43" t="n"/>
-      <c r="G7" s="44" t="n"/>
-      <c r="H7" s="28" t="n"/>
-      <c r="I7" s="28" t="n"/>
-      <c r="J7" s="29" t="n"/>
+      <c r="D7" s="27" t="inlineStr">
+        <is>
+          <t>헛개차</t>
+        </is>
+      </c>
+      <c r="E7" s="28" t="inlineStr">
+        <is>
+          <t>하은경</t>
+        </is>
+      </c>
+      <c r="F7" s="30" t="inlineStr">
+        <is>
+          <t>010-2850-1033</t>
+        </is>
+      </c>
+      <c r="G7" s="30" t="inlineStr">
+        <is>
+          <t>경상북도 구미시 고아읍 들성로9길 22 미도힐스 801호</t>
+        </is>
+      </c>
+      <c r="H7" s="28" t="inlineStr">
+        <is>
+          <t>신한은행 370-12-077565 하은경</t>
+        </is>
+      </c>
+      <c r="I7" s="28" t="inlineStr">
+        <is>
+          <t>771113-2057511</t>
+        </is>
+      </c>
+      <c r="J7" s="29" t="inlineStr">
+        <is>
+          <t>16560</t>
+        </is>
+      </c>
       <c r="K7" s="28" t="n"/>
-      <c r="L7" s="30" t="n"/>
+      <c r="L7" s="28" t="n"/>
       <c r="M7" s="28" t="n"/>
       <c r="N7" s="28" t="n"/>
       <c r="O7" s="28" t="n"/>
     </row>
-    <row r="8" ht="26.25" customHeight="1" s="2" thickBot="1">
+    <row r="8" ht="17.25" customHeight="1" s="2" thickBot="1">
       <c r="A8" s="16" t="n"/>
       <c r="B8" s="17" t="n"/>
       <c r="C8" s="25" t="n"/>
-      <c r="D8" s="27" t="n"/>
-      <c r="E8" s="28" t="n"/>
-      <c r="F8" s="43" t="n"/>
-      <c r="G8" s="44" t="n"/>
-      <c r="H8" s="44" t="n"/>
-      <c r="I8" s="28" t="n"/>
-      <c r="J8" s="29" t="n"/>
+      <c r="D8" s="27" t="inlineStr">
+        <is>
+          <t>헛개차</t>
+        </is>
+      </c>
+      <c r="E8" s="28" t="inlineStr">
+        <is>
+          <t>최완혁(오새은)</t>
+        </is>
+      </c>
+      <c r="F8" s="30" t="inlineStr">
+        <is>
+          <t>010-5351-5285</t>
+        </is>
+      </c>
+      <c r="G8" s="30" t="inlineStr">
+        <is>
+          <t>경기도 남양주시 오남읍 오남리 439 신우아이딜아파트 211-301</t>
+        </is>
+      </c>
+      <c r="H8" s="28" t="inlineStr">
+        <is>
+          <t>신한/110-266-853160/오새은</t>
+        </is>
+      </c>
+      <c r="I8" s="28" t="inlineStr">
+        <is>
+          <t>870502-2019016</t>
+        </is>
+      </c>
+      <c r="J8" s="29" t="inlineStr">
+        <is>
+          <t>16560</t>
+        </is>
+      </c>
       <c r="K8" s="28" t="n"/>
       <c r="L8" s="28" t="n"/>
       <c r="M8" s="28" t="n"/>
@@ -2458,15 +2598,43 @@
       <c r="A9" s="16" t="n"/>
       <c r="B9" s="17" t="n"/>
       <c r="C9" s="25" t="n"/>
-      <c r="D9" s="27" t="n"/>
-      <c r="E9" s="28" t="n"/>
-      <c r="F9" s="28" t="n"/>
-      <c r="G9" s="28" t="n"/>
-      <c r="H9" s="28" t="n"/>
-      <c r="I9" s="28" t="n"/>
-      <c r="J9" s="29" t="n"/>
+      <c r="D9" s="27" t="inlineStr">
+        <is>
+          <t>헛개차</t>
+        </is>
+      </c>
+      <c r="E9" s="28" t="inlineStr">
+        <is>
+          <t>하윤경(하은경)</t>
+        </is>
+      </c>
+      <c r="F9" s="30" t="inlineStr">
+        <is>
+          <t>010-3996-1033</t>
+        </is>
+      </c>
+      <c r="G9" s="30" t="inlineStr">
+        <is>
+          <t>인천광역시 남동구 방축로 493 101동 603호(간석동 현대아파트)</t>
+        </is>
+      </c>
+      <c r="H9" s="28" t="inlineStr">
+        <is>
+          <t>신한은행 370-12-077565 하은경</t>
+        </is>
+      </c>
+      <c r="I9" s="28" t="inlineStr">
+        <is>
+          <t>771113-2057511</t>
+        </is>
+      </c>
+      <c r="J9" s="29" t="inlineStr">
+        <is>
+          <t>16560</t>
+        </is>
+      </c>
       <c r="K9" s="28" t="n"/>
-      <c r="L9" s="30" t="n"/>
+      <c r="L9" s="28" t="n"/>
       <c r="M9" s="28" t="n"/>
       <c r="N9" s="28" t="n"/>
       <c r="O9" s="28" t="n"/>
@@ -2475,35 +2643,91 @@
       <c r="A10" s="16" t="n"/>
       <c r="B10" s="18" t="n"/>
       <c r="C10" s="19" t="n"/>
-      <c r="D10" s="27" t="n"/>
-      <c r="E10" s="28" t="n"/>
-      <c r="F10" s="28" t="n"/>
-      <c r="G10" s="28" t="n"/>
-      <c r="H10" s="28" t="n"/>
-      <c r="I10" s="28" t="n"/>
-      <c r="J10" s="29" t="n"/>
-      <c r="K10" s="30" t="n"/>
-      <c r="L10" s="30" t="n"/>
-      <c r="M10" s="30" t="n"/>
-      <c r="N10" s="30" t="n"/>
+      <c r="D10" s="27" t="inlineStr">
+        <is>
+          <t>헛개차</t>
+        </is>
+      </c>
+      <c r="E10" s="28" t="inlineStr">
+        <is>
+          <t>이일주(하은경)</t>
+        </is>
+      </c>
+      <c r="F10" s="30" t="inlineStr">
+        <is>
+          <t>010-6443-1033</t>
+        </is>
+      </c>
+      <c r="G10" s="30" t="inlineStr">
+        <is>
+          <t>경상북도 구미시 고아읍 문장로22길 5-19 201호</t>
+        </is>
+      </c>
+      <c r="H10" s="28" t="inlineStr">
+        <is>
+          <t>신한은행 370-12-077565 하은경</t>
+        </is>
+      </c>
+      <c r="I10" s="28" t="inlineStr">
+        <is>
+          <t>771113-2057511</t>
+        </is>
+      </c>
+      <c r="J10" s="29" t="inlineStr">
+        <is>
+          <t>16560</t>
+        </is>
+      </c>
+      <c r="K10" s="28" t="n"/>
+      <c r="L10" s="28" t="n"/>
+      <c r="M10" s="28" t="n"/>
+      <c r="N10" s="28" t="n"/>
       <c r="O10" s="28" t="n"/>
     </row>
     <row r="11" ht="17.25" customHeight="1" s="2" thickBot="1">
       <c r="A11" s="16" t="n"/>
       <c r="B11" s="18" t="n"/>
       <c r="C11" s="19" t="n"/>
-      <c r="D11" s="45" t="n"/>
-      <c r="E11" s="45" t="n"/>
-      <c r="F11" s="45" t="n"/>
-      <c r="G11" s="45" t="n"/>
-      <c r="H11" s="45" t="n"/>
-      <c r="I11" s="45" t="n"/>
-      <c r="J11" s="46" t="n"/>
-      <c r="K11" s="26" t="n"/>
-      <c r="L11" s="26" t="n"/>
-      <c r="M11" s="26" t="n"/>
-      <c r="N11" s="26" t="n"/>
-      <c r="O11" s="26" t="n"/>
+      <c r="D11" s="36" t="inlineStr">
+        <is>
+          <t>헛개차</t>
+        </is>
+      </c>
+      <c r="E11" s="36" t="inlineStr">
+        <is>
+          <t>강진희(강경희)</t>
+        </is>
+      </c>
+      <c r="F11" s="39" t="inlineStr">
+        <is>
+          <t>010-5751-7544</t>
+        </is>
+      </c>
+      <c r="G11" s="39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">인천광역시 남동구 구월동 1527 더블루시티 614호 </t>
+        </is>
+      </c>
+      <c r="H11" s="36" t="inlineStr">
+        <is>
+          <t>농협/3524347112243/강경희</t>
+        </is>
+      </c>
+      <c r="I11" s="36" t="inlineStr">
+        <is>
+          <t>920926-2551017</t>
+        </is>
+      </c>
+      <c r="J11" s="37" t="inlineStr">
+        <is>
+          <t>16560</t>
+        </is>
+      </c>
+      <c r="K11" s="36" t="n"/>
+      <c r="L11" s="36" t="n"/>
+      <c r="M11" s="36" t="n"/>
+      <c r="N11" s="36" t="n"/>
+      <c r="O11" s="36" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/이체정보.xlsx
+++ b/이체정보.xlsx
@@ -6,8 +6,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Sheet5" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Sheet6" sheetId="5" state="visible" r:id="rId5"/>
@@ -760,8 +760,8 @@
   </sheetPr>
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -775,8 +775,8 @@
     <col width="31.25" customWidth="1" style="1" min="8" max="8"/>
     <col width="15.375" bestFit="1" customWidth="1" style="1" min="9" max="9"/>
     <col width="24" bestFit="1" customWidth="1" style="1" min="10" max="10"/>
-    <col width="9" customWidth="1" style="1" min="11" max="16"/>
-    <col width="9" customWidth="1" style="1" min="17" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="11" max="17"/>
+    <col width="9" customWidth="1" style="1" min="18" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" s="2" thickBot="1">
@@ -858,129 +858,131 @@
       <c r="C2" s="17" t="n"/>
       <c r="D2" s="27" t="inlineStr">
         <is>
-          <t>헤로잼(복숭아)</t>
-        </is>
-      </c>
-      <c r="E2" s="28" t="inlineStr">
-        <is>
-          <t>송누리</t>
-        </is>
-      </c>
-      <c r="F2" s="28" t="inlineStr">
-        <is>
-          <t>010-6676-4084</t>
-        </is>
-      </c>
-      <c r="G2" s="28" t="inlineStr">
-        <is>
-          <t>경기도 포천시 소홀읍 호국로 429번길 27 미래홈타운 102동 401호</t>
-        </is>
-      </c>
-      <c r="H2" s="28" t="inlineStr">
-        <is>
-          <t>농협 3510088021683 송누리</t>
-        </is>
-      </c>
-      <c r="I2" s="28" t="inlineStr">
-        <is>
-          <t>960131-217401</t>
-        </is>
-      </c>
-      <c r="J2" s="29" t="inlineStr">
-        <is>
-          <t>10900</t>
+          <t>틈새라면스프</t>
+        </is>
+      </c>
+      <c r="E2" s="40" t="inlineStr">
+        <is>
+          <t>윤해정</t>
+        </is>
+      </c>
+      <c r="F2" s="40" t="inlineStr">
+        <is>
+          <t>010-2352-8429</t>
+        </is>
+      </c>
+      <c r="G2" s="40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">경기도  평택시 점촌1로 5번길 41 서정동 티파니하우스 403호 </t>
+        </is>
+      </c>
+      <c r="H2" s="40" t="inlineStr">
+        <is>
+          <t>카카오 3333-04-7824459 윤해정</t>
+        </is>
+      </c>
+      <c r="I2" s="40" t="inlineStr">
+        <is>
+          <t>890630-2709316</t>
+        </is>
+      </c>
+      <c r="J2" s="41" t="inlineStr">
+        <is>
+          <t>5600</t>
         </is>
       </c>
       <c r="K2" s="28" t="n"/>
-      <c r="L2" s="28" t="n"/>
+      <c r="L2" s="30" t="n"/>
       <c r="M2" s="28" t="n"/>
       <c r="N2" s="28" t="n"/>
       <c r="O2" s="28" t="n"/>
     </row>
-    <row r="3" ht="17.25" customHeight="1" s="2" thickBot="1">
+    <row r="3" ht="26.25" customHeight="1" s="2" thickBot="1">
       <c r="A3" s="16" t="n"/>
       <c r="B3" s="17" t="n"/>
       <c r="C3" s="17" t="n"/>
       <c r="D3" s="27" t="inlineStr">
         <is>
-          <t>헤로잼(딸기)</t>
+          <t>틈새라면스프</t>
         </is>
       </c>
       <c r="E3" s="28" t="inlineStr">
         <is>
-          <t>신승희</t>
+          <t>김수정</t>
         </is>
       </c>
       <c r="F3" s="28" t="inlineStr">
         <is>
-          <t>010-6383-7446</t>
+          <t>010-9653-2526</t>
         </is>
       </c>
       <c r="G3" s="28" t="inlineStr">
         <is>
-          <t>경상남도 김해시 관동동 1120 죽림마을동원로얄듀크아파트 14단지 1403동 1502호</t>
+          <t>경기도 부천시 여월동 333 ds타워 612호</t>
         </is>
       </c>
       <c r="H3" s="28" t="inlineStr">
         <is>
-          <t>농협 484-12-091171 신승희</t>
-        </is>
-      </c>
-      <c r="I3" s="28" t="inlineStr">
-        <is>
-          <t>851111-2090615</t>
+          <t>기업은행 538-008343-01-019 김수정</t>
+        </is>
+      </c>
+      <c r="I3" s="29" t="inlineStr">
+        <is>
+          <t>890725-2057714</t>
         </is>
       </c>
       <c r="J3" s="29" t="inlineStr">
         <is>
-          <t>6740</t>
-        </is>
-      </c>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="K3" s="28" t="n"/>
       <c r="L3" s="28" t="n"/>
       <c r="M3" s="28" t="n"/>
       <c r="N3" s="28" t="n"/>
       <c r="O3" s="28" t="n"/>
     </row>
-    <row r="4" ht="17.25" customHeight="1" s="2" thickBot="1">
+    <row r="4" ht="26.25" customHeight="1" s="2" thickBot="1">
       <c r="A4" s="16" t="n"/>
       <c r="B4" s="17" t="n"/>
       <c r="C4" s="17" t="n"/>
       <c r="D4" s="27" t="inlineStr">
         <is>
-          <t>헤로잼(딸기)</t>
+          <t>틈새라면스프</t>
         </is>
       </c>
       <c r="E4" s="28" t="inlineStr">
         <is>
-          <t>정주영</t>
+          <t>윤진희</t>
         </is>
       </c>
       <c r="F4" s="28" t="inlineStr">
         <is>
-          <t>010-6252-2747</t>
+          <t>010-5176-4654</t>
         </is>
       </c>
       <c r="G4" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve">서울특별시 강북구 번동 4117-66 보람팰리스 402호 </t>
+          <t>경기도 군포시 산본천로 66 산본동</t>
         </is>
       </c>
       <c r="H4" s="28" t="inlineStr">
         <is>
-          <t>하나은행01062522747707 정주영</t>
+          <t>신한은행 110-456-968388 윤진희</t>
         </is>
       </c>
       <c r="I4" s="28" t="inlineStr">
         <is>
-          <t>880608  2029531</t>
+          <t>931029-2024918</t>
         </is>
       </c>
       <c r="J4" s="29" t="inlineStr">
         <is>
-          <t>6740</t>
-        </is>
-      </c>
-      <c r="L4" s="28" t="n"/>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="K4" s="28" t="n"/>
+      <c r="L4" s="30" t="n"/>
       <c r="M4" s="28" t="n"/>
       <c r="N4" s="28" t="n"/>
       <c r="O4" s="28" t="n"/>
@@ -991,39 +993,40 @@
       <c r="C5" s="25" t="n"/>
       <c r="D5" s="27" t="inlineStr">
         <is>
-          <t>헤로잼(딸기)</t>
+          <t>틈새라면스프</t>
         </is>
       </c>
       <c r="E5" s="28" t="inlineStr">
         <is>
-          <t>송누리</t>
+          <t>여채원</t>
         </is>
       </c>
       <c r="F5" s="28" t="inlineStr">
         <is>
-          <t>010-6676-4084</t>
+          <t>010-5533-7254</t>
         </is>
       </c>
       <c r="G5" s="28" t="inlineStr">
         <is>
-          <t>경기도 포천시 소홀읍 호국로 429번길 27 미래홈타운 102동 401호</t>
+          <t>경기도 시흥시 목감초등길4 101동 1507호(조남동 삼호아파트)</t>
         </is>
       </c>
       <c r="H5" s="28" t="inlineStr">
         <is>
-          <t>농협 3510088021683 송누리</t>
+          <t>우리은행 / 1002-149-764793／여채원</t>
         </is>
       </c>
       <c r="I5" s="28" t="inlineStr">
         <is>
-          <t>960131-217401</t>
+          <t>720506-2808015</t>
         </is>
       </c>
       <c r="J5" s="29" t="inlineStr">
         <is>
-          <t>6740</t>
-        </is>
-      </c>
+          <t>5270</t>
+        </is>
+      </c>
+      <c r="K5" s="28" t="n"/>
       <c r="L5" s="28" t="n"/>
       <c r="M5" s="28" t="n"/>
       <c r="N5" s="28" t="n"/>
@@ -1036,10 +1039,11 @@
       <c r="D6" s="27" t="n"/>
       <c r="E6" s="28" t="n"/>
       <c r="F6" s="28" t="n"/>
-      <c r="G6" s="28" t="n"/>
+      <c r="G6" s="42" t="n"/>
       <c r="H6" s="28" t="n"/>
       <c r="I6" s="28" t="n"/>
       <c r="J6" s="29" t="n"/>
+      <c r="K6" s="28" t="n"/>
       <c r="L6" s="28" t="n"/>
       <c r="M6" s="28" t="n"/>
       <c r="N6" s="28" t="n"/>
@@ -1051,26 +1055,26 @@
       <c r="C7" s="25" t="n"/>
       <c r="D7" s="27" t="n"/>
       <c r="E7" s="28" t="n"/>
-      <c r="F7" s="30" t="n"/>
-      <c r="G7" s="30" t="n"/>
+      <c r="F7" s="43" t="n"/>
+      <c r="G7" s="44" t="n"/>
       <c r="H7" s="28" t="n"/>
       <c r="I7" s="28" t="n"/>
       <c r="J7" s="29" t="n"/>
       <c r="K7" s="28" t="n"/>
-      <c r="L7" s="28" t="n"/>
+      <c r="L7" s="30" t="n"/>
       <c r="M7" s="28" t="n"/>
       <c r="N7" s="28" t="n"/>
       <c r="O7" s="28" t="n"/>
     </row>
-    <row r="8" ht="17.25" customHeight="1" s="2" thickBot="1">
+    <row r="8" ht="26.25" customHeight="1" s="2" thickBot="1">
       <c r="A8" s="16" t="n"/>
       <c r="B8" s="17" t="n"/>
       <c r="C8" s="25" t="n"/>
       <c r="D8" s="27" t="n"/>
       <c r="E8" s="28" t="n"/>
-      <c r="F8" s="30" t="n"/>
-      <c r="G8" s="30" t="n"/>
-      <c r="H8" s="28" t="n"/>
+      <c r="F8" s="43" t="n"/>
+      <c r="G8" s="44" t="n"/>
+      <c r="H8" s="44" t="n"/>
       <c r="I8" s="28" t="n"/>
       <c r="J8" s="29" t="n"/>
       <c r="K8" s="28" t="n"/>
@@ -1085,13 +1089,13 @@
       <c r="C9" s="25" t="n"/>
       <c r="D9" s="27" t="n"/>
       <c r="E9" s="28" t="n"/>
-      <c r="F9" s="30" t="n"/>
-      <c r="G9" s="30" t="n"/>
+      <c r="F9" s="28" t="n"/>
+      <c r="G9" s="28" t="n"/>
       <c r="H9" s="28" t="n"/>
       <c r="I9" s="28" t="n"/>
       <c r="J9" s="29" t="n"/>
       <c r="K9" s="28" t="n"/>
-      <c r="L9" s="28" t="n"/>
+      <c r="L9" s="30" t="n"/>
       <c r="M9" s="28" t="n"/>
       <c r="N9" s="28" t="n"/>
       <c r="O9" s="28" t="n"/>
@@ -1102,33 +1106,33 @@
       <c r="C10" s="19" t="n"/>
       <c r="D10" s="27" t="n"/>
       <c r="E10" s="28" t="n"/>
-      <c r="F10" s="30" t="n"/>
-      <c r="G10" s="30" t="n"/>
+      <c r="F10" s="28" t="n"/>
+      <c r="G10" s="28" t="n"/>
       <c r="H10" s="28" t="n"/>
       <c r="I10" s="28" t="n"/>
       <c r="J10" s="29" t="n"/>
-      <c r="K10" s="28" t="n"/>
-      <c r="L10" s="28" t="n"/>
-      <c r="M10" s="28" t="n"/>
-      <c r="N10" s="28" t="n"/>
+      <c r="K10" s="30" t="n"/>
+      <c r="L10" s="30" t="n"/>
+      <c r="M10" s="30" t="n"/>
+      <c r="N10" s="30" t="n"/>
       <c r="O10" s="28" t="n"/>
     </row>
     <row r="11" ht="17.25" customHeight="1" s="2" thickBot="1">
       <c r="A11" s="16" t="n"/>
       <c r="B11" s="18" t="n"/>
       <c r="C11" s="19" t="n"/>
-      <c r="D11" s="36" t="n"/>
-      <c r="E11" s="36" t="n"/>
-      <c r="F11" s="39" t="n"/>
-      <c r="G11" s="39" t="n"/>
-      <c r="H11" s="36" t="n"/>
-      <c r="I11" s="36" t="n"/>
-      <c r="J11" s="37" t="n"/>
-      <c r="K11" s="36" t="n"/>
-      <c r="L11" s="36" t="n"/>
-      <c r="M11" s="36" t="n"/>
-      <c r="N11" s="36" t="n"/>
-      <c r="O11" s="36" t="n"/>
+      <c r="D11" s="45" t="n"/>
+      <c r="E11" s="45" t="n"/>
+      <c r="F11" s="45" t="n"/>
+      <c r="G11" s="45" t="n"/>
+      <c r="H11" s="45" t="n"/>
+      <c r="I11" s="45" t="n"/>
+      <c r="J11" s="46" t="n"/>
+      <c r="K11" s="26" t="n"/>
+      <c r="L11" s="26" t="n"/>
+      <c r="M11" s="26" t="n"/>
+      <c r="N11" s="26" t="n"/>
+      <c r="O11" s="26" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1662,8 +1666,8 @@
   </sheetPr>
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -1677,8 +1681,8 @@
     <col width="31.25" customWidth="1" style="1" min="8" max="8"/>
     <col width="15.375" bestFit="1" customWidth="1" style="1" min="9" max="9"/>
     <col width="24" bestFit="1" customWidth="1" style="1" min="10" max="10"/>
-    <col width="9" customWidth="1" style="1" min="11" max="16"/>
-    <col width="9" customWidth="1" style="1" min="17" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="11" max="17"/>
+    <col width="9" customWidth="1" style="1" min="18" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" s="2" thickBot="1">
@@ -1760,37 +1764,37 @@
       <c r="C2" s="17" t="n"/>
       <c r="D2" s="47" t="inlineStr">
         <is>
-          <t>헛개차</t>
+          <t>비빔칩(고추장마요)</t>
         </is>
       </c>
       <c r="E2" s="28" t="inlineStr">
         <is>
-          <t>정미선</t>
+          <t>윤해정</t>
         </is>
       </c>
       <c r="F2" s="28" t="inlineStr">
         <is>
-          <t>010-9369-1024</t>
+          <t>010-2352-8429</t>
         </is>
       </c>
       <c r="G2" s="28" t="inlineStr">
         <is>
-          <t>서울특별시 강남구 봉은사로5길 24 202호(논현동논현동빌라)</t>
+          <t xml:space="preserve">경기도  평택시 점촌1로 5번길 41 서정동 티파니하우스 403호 </t>
         </is>
       </c>
       <c r="H2" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve">신한은행 110-409-182743 정미선 </t>
+          <t>카카오 3333-04-7824459 윤해정</t>
         </is>
       </c>
       <c r="I2" s="28" t="inlineStr">
         <is>
-          <t>751024-2047420</t>
+          <t xml:space="preserve">890630-2709316 </t>
         </is>
       </c>
       <c r="J2" s="29" t="inlineStr">
         <is>
-          <t>15330</t>
+          <t>2420</t>
         </is>
       </c>
       <c r="N2" s="38" t="n"/>
@@ -1802,37 +1806,37 @@
       <c r="C3" s="17" t="n"/>
       <c r="D3" s="47" t="inlineStr">
         <is>
-          <t>헛개차</t>
+          <t>비빔칩(고추장마요)</t>
         </is>
       </c>
       <c r="E3" s="28" t="inlineStr">
         <is>
-          <t>신승희</t>
+          <t>조경민(홍수지）</t>
         </is>
       </c>
       <c r="F3" s="28" t="inlineStr">
         <is>
-          <t>010-6383-7446</t>
+          <t>010-8234-8991</t>
         </is>
       </c>
       <c r="G3" s="28" t="inlineStr">
         <is>
-          <t>경상남도 김해시 관동동 1120 죽림마을동원로얄듀크아파트 14단지 1403동 1502호</t>
+          <t>서울특별시 관악구 장군봉길 95 102동 203호</t>
         </is>
       </c>
       <c r="H3" s="28" t="inlineStr">
         <is>
-          <t>농협 484-12-091171 신승희</t>
+          <t>기업01028958991홍수지</t>
         </is>
       </c>
       <c r="I3" s="28" t="inlineStr">
         <is>
-          <t>851111-2090615</t>
+          <t>791211. 2069516</t>
         </is>
       </c>
       <c r="J3" s="29" t="inlineStr">
         <is>
-          <t>15330</t>
+          <t>2420</t>
         </is>
       </c>
       <c r="K3" s="28" t="n"/>
@@ -1847,37 +1851,37 @@
       <c r="C4" s="17" t="n"/>
       <c r="D4" s="27" t="inlineStr">
         <is>
-          <t>헛개차</t>
+          <t>비빔칩(고추장마요)</t>
         </is>
       </c>
       <c r="E4" s="28" t="inlineStr">
         <is>
-          <t>송누리</t>
+          <t>김수정</t>
         </is>
       </c>
       <c r="F4" s="28" t="inlineStr">
         <is>
-          <t>010-6676-4084</t>
+          <t>010-9653-2526</t>
         </is>
       </c>
       <c r="G4" s="28" t="inlineStr">
         <is>
-          <t>경기도 포천시 소홀읍 호국로 429번길 27 미래홈타운 102동 401호</t>
+          <t>경기도 부천시 여월동 333 ds타워 612호</t>
         </is>
       </c>
       <c r="H4" s="28" t="inlineStr">
         <is>
-          <t>농협 3510088021683 송누리</t>
+          <t>기업은행 538-008343-01-019 김수정</t>
         </is>
       </c>
       <c r="I4" s="28" t="inlineStr">
         <is>
-          <t>960131-217401</t>
+          <t>890725-2057714</t>
         </is>
       </c>
       <c r="J4" s="29" t="inlineStr">
         <is>
-          <t>15330</t>
+          <t>2420</t>
         </is>
       </c>
       <c r="K4" s="28" t="n"/>
@@ -1892,37 +1896,37 @@
       <c r="C5" s="25" t="n"/>
       <c r="D5" s="27" t="inlineStr">
         <is>
-          <t>헛개차</t>
+          <t>비빔칩(고추장마요)</t>
         </is>
       </c>
       <c r="E5" s="28" t="inlineStr">
         <is>
-          <t>강한별(박은영)</t>
+          <t>김유경</t>
         </is>
       </c>
       <c r="F5" s="28" t="inlineStr">
         <is>
-          <t>010-5878-1031</t>
+          <t>010-4048-4814</t>
         </is>
       </c>
       <c r="G5" s="28" t="inlineStr">
         <is>
-          <t>광주광역시 광산구 월곡반월로48번길25(월곡동)</t>
+          <t>인천광역시 서구 청라동 102-16 청라반도유보라 535-2003</t>
         </is>
       </c>
       <c r="H5" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 신한은행 110480-632856 박은영</t>
+          <t>기업95500998601011김유경</t>
         </is>
       </c>
       <c r="I5" s="29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 930603-2552821</t>
+          <t>900619-2183724</t>
         </is>
       </c>
       <c r="J5" s="29" t="inlineStr">
         <is>
-          <t>16560</t>
+          <t>2420</t>
         </is>
       </c>
       <c r="K5" s="28" t="n"/>
@@ -1937,37 +1941,37 @@
       <c r="C6" s="25" t="n"/>
       <c r="D6" s="27" t="inlineStr">
         <is>
-          <t>헛개차</t>
+          <t>비빔칩(고추장마요)</t>
         </is>
       </c>
       <c r="E6" s="28" t="inlineStr">
         <is>
-          <t>유해민</t>
+          <t>윤진희</t>
         </is>
       </c>
       <c r="F6" s="28" t="inlineStr">
         <is>
-          <t>010-3854-0116</t>
+          <t>010-5176-4654</t>
         </is>
       </c>
       <c r="G6" s="28" t="inlineStr">
         <is>
-          <t>경기도 용인시 기흥구 보라동 392-16 토미하우스BC토미하수스 B동 502호</t>
+          <t>경기도 군포시 산본천로 66 산본동</t>
         </is>
       </c>
       <c r="H6" s="28" t="inlineStr">
         <is>
-          <t>국민은행94290200037658 유해민</t>
+          <t>신한은행 110-456-968388 윤진희</t>
         </is>
       </c>
       <c r="I6" s="28" t="inlineStr">
         <is>
-          <t>970402-1167719</t>
+          <t>931029-2024918</t>
         </is>
       </c>
       <c r="J6" s="29" t="inlineStr">
         <is>
-          <t>16560</t>
+          <t>2420</t>
         </is>
       </c>
       <c r="K6" s="28" t="n"/>
@@ -1982,37 +1986,37 @@
       <c r="C7" s="25" t="n"/>
       <c r="D7" s="27" t="inlineStr">
         <is>
-          <t>헛개차</t>
+          <t>비빔칩(고추장마요)</t>
         </is>
       </c>
       <c r="E7" s="28" t="inlineStr">
         <is>
-          <t>방종춘</t>
+          <t>김효국</t>
         </is>
       </c>
       <c r="F7" s="28" t="inlineStr">
         <is>
-          <t>010-9521-2754</t>
+          <t>010-5551-5737</t>
         </is>
       </c>
       <c r="G7" s="28" t="inlineStr">
         <is>
-          <t>광주광역시 남구 용대로183번안길 4 2층 (방림동)</t>
+          <t>대구광ㅇ역시 달서구 월배로5길 76</t>
         </is>
       </c>
       <c r="H7" s="28" t="inlineStr">
         <is>
-          <t>농협 3520247748193 방종춘</t>
+          <t xml:space="preserve">카카오뱅크 3333-26-6158154 김효국 </t>
         </is>
       </c>
       <c r="I7" s="28" t="inlineStr">
         <is>
-          <t>930101-1644219</t>
+          <t>820808-1794017</t>
         </is>
       </c>
       <c r="J7" s="29" t="inlineStr">
         <is>
-          <t>16560</t>
+          <t>2420</t>
         </is>
       </c>
       <c r="K7" s="28" t="n"/>
@@ -2027,37 +2031,37 @@
       <c r="C8" s="25" t="n"/>
       <c r="D8" s="27" t="inlineStr">
         <is>
-          <t>헛개차</t>
+          <t>비빔칩(고추장마요)</t>
         </is>
       </c>
       <c r="E8" s="28" t="inlineStr">
         <is>
-          <t>김서하</t>
+          <t>변정옥</t>
         </is>
       </c>
       <c r="F8" s="28" t="inlineStr">
         <is>
-          <t>010-2712-4371</t>
+          <t>010-9471-0960</t>
         </is>
       </c>
       <c r="G8" s="28" t="inlineStr">
         <is>
-          <t>대구광역시 달서구 유천동 605 대구월배아이파크 111동 2004호</t>
+          <t>서울시 동작구 노량진동 신동아리버파크 708-1007</t>
         </is>
       </c>
       <c r="H8" s="28" t="inlineStr">
         <is>
-          <t>미래에셋400868573860김서하</t>
+          <t>신한은행 110-391-292884변정옥</t>
         </is>
       </c>
       <c r="I8" s="28" t="inlineStr">
         <is>
-          <t>940831-2768314</t>
+          <t>8309302178318</t>
         </is>
       </c>
       <c r="J8" s="29" t="inlineStr">
         <is>
-          <t>16560</t>
+          <t>2420</t>
         </is>
       </c>
       <c r="K8" s="28" t="n"/>
@@ -2072,37 +2076,37 @@
       <c r="C9" s="25" t="n"/>
       <c r="D9" s="27" t="inlineStr">
         <is>
-          <t>헛개차</t>
+          <t>비빔칩(시그니쳐)</t>
         </is>
       </c>
       <c r="E9" s="28" t="inlineStr">
         <is>
-          <t>정연수(박은영)</t>
+          <t>김수정</t>
         </is>
       </c>
       <c r="F9" s="28" t="inlineStr">
         <is>
-          <t>010-5878-1031</t>
+          <t>010-9653-2526</t>
         </is>
       </c>
       <c r="G9" s="28" t="inlineStr">
         <is>
-          <t>광주광역시 광산구 월곡반월로 48번길 25 월곡동 1층</t>
+          <t>경기도 부천시 여우러동 333 DS타워 612호</t>
         </is>
       </c>
       <c r="H9" s="28" t="inlineStr">
         <is>
-          <t>신한은행 110480-632856 박은영</t>
+          <t>기업은행 538-008343-01-019 김수정</t>
         </is>
       </c>
       <c r="I9" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 930603-2552821</t>
+          <t>890725-2057714</t>
         </is>
       </c>
       <c r="J9" s="29" t="inlineStr">
         <is>
-          <t>16560</t>
+          <t>4160</t>
         </is>
       </c>
       <c r="K9" s="28" t="n"/>
@@ -2117,37 +2121,37 @@
       <c r="C10" s="19" t="n"/>
       <c r="D10" s="27" t="inlineStr">
         <is>
-          <t>헛개차</t>
+          <t>비빔칩(시그니쳐)</t>
         </is>
       </c>
       <c r="E10" s="28" t="inlineStr">
         <is>
-          <t>곽주선</t>
+          <t>김민규</t>
         </is>
       </c>
       <c r="F10" s="28" t="inlineStr">
         <is>
-          <t>010-4419-1152</t>
+          <t>010-2561-2040</t>
         </is>
       </c>
       <c r="G10" s="28" t="inlineStr">
         <is>
-          <t>울산광역시 남구 달동 1338-2 송빌라트 303호</t>
+          <t xml:space="preserve">경상남도 창원시 성산구 대방동 355 성원남산3차아파트 311동 2005호 </t>
         </is>
       </c>
       <c r="H10" s="28" t="inlineStr">
         <is>
-          <t>신한은행 110-494-389765 곽주선</t>
+          <t>카카오 3333-10-4827813 김민규</t>
         </is>
       </c>
       <c r="I10" s="28" t="inlineStr">
         <is>
-          <t>950829-2853516</t>
+          <t>961030-1820914</t>
         </is>
       </c>
       <c r="J10" s="29" t="inlineStr">
         <is>
-          <t>16560</t>
+          <t>4160</t>
         </is>
       </c>
       <c r="K10" s="28" t="n"/>
@@ -2162,37 +2166,37 @@
       <c r="C11" s="19" t="n"/>
       <c r="D11" s="36" t="inlineStr">
         <is>
-          <t>헤로잼(복숭아)</t>
+          <t>비빔칩(시그니쳐)</t>
         </is>
       </c>
       <c r="E11" s="36" t="inlineStr">
         <is>
-          <t>신승희</t>
+          <t>하은경</t>
         </is>
       </c>
       <c r="F11" s="36" t="inlineStr">
         <is>
-          <t>010-6383-7446</t>
+          <t>010-2850-1033</t>
         </is>
       </c>
       <c r="G11" s="39" t="inlineStr">
         <is>
-          <t>경상남도 김해시 관동동 1120 죽림마을동원로얄듀크아파트 14단지 1403동 1502호</t>
+          <t xml:space="preserve">경상북도 구미시 고아읍 들성로９길 미도힐스 ８０１호 </t>
         </is>
       </c>
       <c r="H11" s="36" t="inlineStr">
         <is>
-          <t>농협 484-12-091171 신승희</t>
+          <t>신한은행 370-12-077565 하은경</t>
         </is>
       </c>
       <c r="I11" s="39" t="inlineStr">
         <is>
-          <t>851111-2090615</t>
+          <t>771113-2057511</t>
         </is>
       </c>
       <c r="J11" s="37" t="inlineStr">
         <is>
-          <t>10900</t>
+          <t>4160</t>
         </is>
       </c>
       <c r="K11" s="36" t="n"/>
@@ -2216,7 +2220,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -2230,8 +2234,8 @@
     <col width="31.25" customWidth="1" style="1" min="8" max="8"/>
     <col width="15.375" bestFit="1" customWidth="1" style="1" min="9" max="9"/>
     <col width="24" bestFit="1" customWidth="1" style="1" min="10" max="10"/>
-    <col width="9" customWidth="1" style="1" min="11" max="16"/>
-    <col width="9" customWidth="1" style="1" min="17" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="11" max="17"/>
+    <col width="9" customWidth="1" style="1" min="18" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" s="2" thickBot="1">
@@ -2313,75 +2317,129 @@
       <c r="C2" s="17" t="n"/>
       <c r="D2" s="27" t="inlineStr">
         <is>
-          <t>헤로잼(딸기)</t>
-        </is>
-      </c>
-      <c r="E2" s="40" t="inlineStr">
-        <is>
-          <t>한승민(최보화)</t>
-        </is>
-      </c>
-      <c r="F2" s="40" t="inlineStr">
-        <is>
-          <t>010-5142-2365</t>
-        </is>
-      </c>
-      <c r="G2" s="40" t="inlineStr">
-        <is>
-          <t>부산광역시 부산진구 개금동 618-2 개금현대아이아파트 208동 1404호</t>
-        </is>
-      </c>
-      <c r="H2" s="40" t="inlineStr">
-        <is>
-          <t>우리은행/1002-339-538116 최보화</t>
-        </is>
-      </c>
-      <c r="I2" s="40" t="inlineStr">
-        <is>
-          <t>890716-2233113</t>
-        </is>
-      </c>
-      <c r="J2" s="41" t="inlineStr">
-        <is>
-          <t>6740</t>
+          <t>비빔칩(시그니쳐)</t>
+        </is>
+      </c>
+      <c r="E2" s="28" t="inlineStr">
+        <is>
+          <t>아이템샵랩스(서샛별)</t>
+        </is>
+      </c>
+      <c r="F2" s="28" t="inlineStr">
+        <is>
+          <t>010-4558-6212</t>
+        </is>
+      </c>
+      <c r="G2" s="28" t="inlineStr">
+        <is>
+          <t>경기도 과천시 가일로 15-9 1층(갈현동)</t>
+        </is>
+      </c>
+      <c r="H2" s="28" t="inlineStr">
+        <is>
+          <t>농협/848-12-098774/서샛별</t>
+        </is>
+      </c>
+      <c r="I2" s="28" t="inlineStr">
+        <is>
+          <t>841209-2824112</t>
+        </is>
+      </c>
+      <c r="J2" s="29" t="inlineStr">
+        <is>
+          <t>4160</t>
         </is>
       </c>
       <c r="K2" s="28" t="n"/>
-      <c r="L2" s="30" t="n"/>
+      <c r="L2" s="28" t="n"/>
       <c r="M2" s="28" t="n"/>
       <c r="N2" s="28" t="n"/>
       <c r="O2" s="28" t="n"/>
     </row>
-    <row r="3" ht="26.25" customHeight="1" s="2" thickBot="1">
+    <row r="3" ht="17.25" customHeight="1" s="2" thickBot="1">
       <c r="A3" s="16" t="n"/>
       <c r="B3" s="17" t="n"/>
       <c r="C3" s="17" t="n"/>
-      <c r="D3" s="27" t="n"/>
-      <c r="E3" s="28" t="n"/>
-      <c r="F3" s="28" t="n"/>
-      <c r="G3" s="28" t="n"/>
-      <c r="H3" s="28" t="n"/>
-      <c r="I3" s="29" t="n"/>
-      <c r="J3" s="29" t="n"/>
-      <c r="K3" s="28" t="n"/>
+      <c r="D3" s="27" t="inlineStr">
+        <is>
+          <t>비빔칩(시그니쳐)</t>
+        </is>
+      </c>
+      <c r="E3" s="28" t="inlineStr">
+        <is>
+          <t>김도영</t>
+        </is>
+      </c>
+      <c r="F3" s="28" t="inlineStr">
+        <is>
+          <t>010-5123-4696</t>
+        </is>
+      </c>
+      <c r="G3" s="28" t="inlineStr">
+        <is>
+          <t>대구광역시 북구 고성동1가 265 힐스테이트 대구역오패라 106-1902</t>
+        </is>
+      </c>
+      <c r="H3" s="28" t="inlineStr">
+        <is>
+          <t>IM뱅크 508152723669 김도영</t>
+        </is>
+      </c>
+      <c r="I3" s="28" t="inlineStr">
+        <is>
+          <t>860927-1673610</t>
+        </is>
+      </c>
+      <c r="J3" s="29" t="inlineStr">
+        <is>
+          <t>4160</t>
+        </is>
+      </c>
       <c r="L3" s="28" t="n"/>
       <c r="M3" s="28" t="n"/>
       <c r="N3" s="28" t="n"/>
       <c r="O3" s="28" t="n"/>
     </row>
-    <row r="4" ht="26.25" customHeight="1" s="2" thickBot="1">
+    <row r="4" ht="17.25" customHeight="1" s="2" thickBot="1">
       <c r="A4" s="16" t="n"/>
       <c r="B4" s="17" t="n"/>
       <c r="C4" s="17" t="n"/>
-      <c r="D4" s="27" t="n"/>
-      <c r="E4" s="28" t="n"/>
-      <c r="F4" s="28" t="n"/>
-      <c r="G4" s="28" t="n"/>
-      <c r="H4" s="28" t="n"/>
-      <c r="I4" s="28" t="n"/>
-      <c r="J4" s="29" t="n"/>
-      <c r="K4" s="28" t="n"/>
-      <c r="L4" s="30" t="n"/>
+      <c r="D4" s="27" t="inlineStr">
+        <is>
+          <t>비빔칩(시그니쳐)</t>
+        </is>
+      </c>
+      <c r="E4" s="28" t="inlineStr">
+        <is>
+          <t>안은새</t>
+        </is>
+      </c>
+      <c r="F4" s="28" t="inlineStr">
+        <is>
+          <t>010-7756-1993</t>
+        </is>
+      </c>
+      <c r="G4" s="28" t="inlineStr">
+        <is>
+          <t>경기도 하남시 미사강변대로 95 105동 103호 (풍산동미사강변센트럴자이)</t>
+        </is>
+      </c>
+      <c r="H4" s="28" t="inlineStr">
+        <is>
+          <t>국민 / 831802-04-174206 / 안은새</t>
+        </is>
+      </c>
+      <c r="I4" s="28" t="inlineStr">
+        <is>
+          <t>931203-2238828</t>
+        </is>
+      </c>
+      <c r="J4" s="29" t="inlineStr">
+        <is>
+          <t>4160</t>
+        </is>
+      </c>
+      <c r="L4" s="28" t="n"/>
       <c r="M4" s="28" t="n"/>
       <c r="N4" s="28" t="n"/>
       <c r="O4" s="28" t="n"/>
@@ -2390,14 +2448,41 @@
       <c r="A5" s="16" t="n"/>
       <c r="B5" s="17" t="n"/>
       <c r="C5" s="25" t="n"/>
-      <c r="D5" s="27" t="n"/>
-      <c r="E5" s="28" t="n"/>
-      <c r="F5" s="28" t="n"/>
-      <c r="G5" s="28" t="n"/>
-      <c r="H5" s="28" t="n"/>
-      <c r="I5" s="28" t="n"/>
-      <c r="J5" s="29" t="n"/>
-      <c r="K5" s="28" t="n"/>
+      <c r="D5" s="27" t="inlineStr">
+        <is>
+          <t>헛개차</t>
+        </is>
+      </c>
+      <c r="E5" s="28" t="inlineStr">
+        <is>
+          <t>윤해정</t>
+        </is>
+      </c>
+      <c r="F5" s="28" t="inlineStr">
+        <is>
+          <t>010-2352-8429</t>
+        </is>
+      </c>
+      <c r="G5" s="28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">경기도  평택시 점촌1로 5번길 41 서정동 티파니하우스 403호 </t>
+        </is>
+      </c>
+      <c r="H5" s="28" t="inlineStr">
+        <is>
+          <t>카카오 3333-04-7824459 윤해정</t>
+        </is>
+      </c>
+      <c r="I5" s="28" t="inlineStr">
+        <is>
+          <t>890630-2709316</t>
+        </is>
+      </c>
+      <c r="J5" s="29" t="inlineStr">
+        <is>
+          <t>16560</t>
+        </is>
+      </c>
       <c r="L5" s="28" t="n"/>
       <c r="M5" s="28" t="n"/>
       <c r="N5" s="28" t="n"/>
@@ -2407,14 +2492,41 @@
       <c r="A6" s="16" t="n"/>
       <c r="B6" s="17" t="n"/>
       <c r="C6" s="25" t="n"/>
-      <c r="D6" s="27" t="n"/>
-      <c r="E6" s="28" t="n"/>
-      <c r="F6" s="28" t="n"/>
-      <c r="G6" s="42" t="n"/>
-      <c r="H6" s="28" t="n"/>
-      <c r="I6" s="28" t="n"/>
-      <c r="J6" s="29" t="n"/>
-      <c r="K6" s="28" t="n"/>
+      <c r="D6" s="27" t="inlineStr">
+        <is>
+          <t>헛개차</t>
+        </is>
+      </c>
+      <c r="E6" s="28" t="inlineStr">
+        <is>
+          <t>김수정</t>
+        </is>
+      </c>
+      <c r="F6" s="28" t="inlineStr">
+        <is>
+          <t>010-9653-2526</t>
+        </is>
+      </c>
+      <c r="G6" s="28" t="inlineStr">
+        <is>
+          <t>경기도 부천시 여월동 333 ds타워 612호</t>
+        </is>
+      </c>
+      <c r="H6" s="28" t="inlineStr">
+        <is>
+          <t>기업은행 538-008343-01-019 김수정</t>
+        </is>
+      </c>
+      <c r="I6" s="28" t="inlineStr">
+        <is>
+          <t>890725-2057714</t>
+        </is>
+      </c>
+      <c r="J6" s="29" t="inlineStr">
+        <is>
+          <t>16560</t>
+        </is>
+      </c>
       <c r="L6" s="28" t="n"/>
       <c r="M6" s="28" t="n"/>
       <c r="N6" s="28" t="n"/>
@@ -2424,30 +2536,86 @@
       <c r="A7" s="16" t="n"/>
       <c r="B7" s="17" t="n"/>
       <c r="C7" s="25" t="n"/>
-      <c r="D7" s="27" t="n"/>
-      <c r="E7" s="28" t="n"/>
-      <c r="F7" s="43" t="n"/>
-      <c r="G7" s="44" t="n"/>
-      <c r="H7" s="28" t="n"/>
-      <c r="I7" s="28" t="n"/>
-      <c r="J7" s="29" t="n"/>
+      <c r="D7" s="27" t="inlineStr">
+        <is>
+          <t>헛개차</t>
+        </is>
+      </c>
+      <c r="E7" s="28" t="inlineStr">
+        <is>
+          <t>김유경</t>
+        </is>
+      </c>
+      <c r="F7" s="30" t="inlineStr">
+        <is>
+          <t>010-4048-4814</t>
+        </is>
+      </c>
+      <c r="G7" s="30" t="inlineStr">
+        <is>
+          <t>인천광역시 서구 청라동 102-16 청라반도유보라 535-2003</t>
+        </is>
+      </c>
+      <c r="H7" s="28" t="inlineStr">
+        <is>
+          <t>기업95500998601011김유경</t>
+        </is>
+      </c>
+      <c r="I7" s="28" t="inlineStr">
+        <is>
+          <t>900619-2183724</t>
+        </is>
+      </c>
+      <c r="J7" s="29" t="inlineStr">
+        <is>
+          <t>16560</t>
+        </is>
+      </c>
       <c r="K7" s="28" t="n"/>
-      <c r="L7" s="30" t="n"/>
+      <c r="L7" s="28" t="n"/>
       <c r="M7" s="28" t="n"/>
       <c r="N7" s="28" t="n"/>
       <c r="O7" s="28" t="n"/>
     </row>
-    <row r="8" ht="26.25" customHeight="1" s="2" thickBot="1">
+    <row r="8" ht="17.25" customHeight="1" s="2" thickBot="1">
       <c r="A8" s="16" t="n"/>
       <c r="B8" s="17" t="n"/>
       <c r="C8" s="25" t="n"/>
-      <c r="D8" s="27" t="n"/>
-      <c r="E8" s="28" t="n"/>
-      <c r="F8" s="43" t="n"/>
-      <c r="G8" s="44" t="n"/>
-      <c r="H8" s="44" t="n"/>
-      <c r="I8" s="28" t="n"/>
-      <c r="J8" s="29" t="n"/>
+      <c r="D8" s="27" t="inlineStr">
+        <is>
+          <t>헛개차</t>
+        </is>
+      </c>
+      <c r="E8" s="28" t="inlineStr">
+        <is>
+          <t>윤진희</t>
+        </is>
+      </c>
+      <c r="F8" s="30" t="inlineStr">
+        <is>
+          <t>010-5176-4654</t>
+        </is>
+      </c>
+      <c r="G8" s="30" t="inlineStr">
+        <is>
+          <t>경기도 군포시 산본천로 66 산본동</t>
+        </is>
+      </c>
+      <c r="H8" s="28" t="inlineStr">
+        <is>
+          <t>신한은행 110-456-968388 윤진희</t>
+        </is>
+      </c>
+      <c r="I8" s="28" t="inlineStr">
+        <is>
+          <t>931029-2024918</t>
+        </is>
+      </c>
+      <c r="J8" s="29" t="inlineStr">
+        <is>
+          <t>16560</t>
+        </is>
+      </c>
       <c r="K8" s="28" t="n"/>
       <c r="L8" s="28" t="n"/>
       <c r="M8" s="28" t="n"/>
@@ -2458,15 +2626,43 @@
       <c r="A9" s="16" t="n"/>
       <c r="B9" s="17" t="n"/>
       <c r="C9" s="25" t="n"/>
-      <c r="D9" s="27" t="n"/>
-      <c r="E9" s="28" t="n"/>
-      <c r="F9" s="28" t="n"/>
-      <c r="G9" s="28" t="n"/>
-      <c r="H9" s="28" t="n"/>
-      <c r="I9" s="28" t="n"/>
-      <c r="J9" s="29" t="n"/>
+      <c r="D9" s="27" t="inlineStr">
+        <is>
+          <t>헛개차</t>
+        </is>
+      </c>
+      <c r="E9" s="28" t="inlineStr">
+        <is>
+          <t>남기연</t>
+        </is>
+      </c>
+      <c r="F9" s="30" t="inlineStr">
+        <is>
+          <t>010-4189-7778</t>
+        </is>
+      </c>
+      <c r="G9" s="30" t="inlineStr">
+        <is>
+          <t>경기도 안양시 동안구 경수대로 583 201동 1003호(호계동 평촌 어바인 퍼스트)</t>
+        </is>
+      </c>
+      <c r="H9" s="28" t="inlineStr">
+        <is>
+          <t>우리은행1002-051-068411남기연</t>
+        </is>
+      </c>
+      <c r="I9" s="28" t="inlineStr">
+        <is>
+          <t>890624-1059119</t>
+        </is>
+      </c>
+      <c r="J9" s="29" t="inlineStr">
+        <is>
+          <t>16560</t>
+        </is>
+      </c>
       <c r="K9" s="28" t="n"/>
-      <c r="L9" s="30" t="n"/>
+      <c r="L9" s="28" t="n"/>
       <c r="M9" s="28" t="n"/>
       <c r="N9" s="28" t="n"/>
       <c r="O9" s="28" t="n"/>
@@ -2475,35 +2671,91 @@
       <c r="A10" s="16" t="n"/>
       <c r="B10" s="18" t="n"/>
       <c r="C10" s="19" t="n"/>
-      <c r="D10" s="27" t="n"/>
-      <c r="E10" s="28" t="n"/>
-      <c r="F10" s="28" t="n"/>
-      <c r="G10" s="28" t="n"/>
-      <c r="H10" s="28" t="n"/>
-      <c r="I10" s="28" t="n"/>
-      <c r="J10" s="29" t="n"/>
-      <c r="K10" s="30" t="n"/>
-      <c r="L10" s="30" t="n"/>
-      <c r="M10" s="30" t="n"/>
-      <c r="N10" s="30" t="n"/>
+      <c r="D10" s="27" t="inlineStr">
+        <is>
+          <t>헛개차</t>
+        </is>
+      </c>
+      <c r="E10" s="28" t="inlineStr">
+        <is>
+          <t>김효국</t>
+        </is>
+      </c>
+      <c r="F10" s="30" t="inlineStr">
+        <is>
+          <t>010-5551-5737</t>
+        </is>
+      </c>
+      <c r="G10" s="30" t="inlineStr">
+        <is>
+          <t>대구광ㅇ역시 달서구 월배로5길 76</t>
+        </is>
+      </c>
+      <c r="H10" s="28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">카카오뱅크 3333-26-6158154 김효국 </t>
+        </is>
+      </c>
+      <c r="I10" s="28" t="inlineStr">
+        <is>
+          <t>820808-1794017</t>
+        </is>
+      </c>
+      <c r="J10" s="29" t="inlineStr">
+        <is>
+          <t>16290</t>
+        </is>
+      </c>
+      <c r="K10" s="28" t="n"/>
+      <c r="L10" s="28" t="n"/>
+      <c r="M10" s="28" t="n"/>
+      <c r="N10" s="28" t="n"/>
       <c r="O10" s="28" t="n"/>
     </row>
     <row r="11" ht="17.25" customHeight="1" s="2" thickBot="1">
       <c r="A11" s="16" t="n"/>
       <c r="B11" s="18" t="n"/>
       <c r="C11" s="19" t="n"/>
-      <c r="D11" s="45" t="n"/>
-      <c r="E11" s="45" t="n"/>
-      <c r="F11" s="45" t="n"/>
-      <c r="G11" s="45" t="n"/>
-      <c r="H11" s="45" t="n"/>
-      <c r="I11" s="45" t="n"/>
-      <c r="J11" s="46" t="n"/>
-      <c r="K11" s="26" t="n"/>
-      <c r="L11" s="26" t="n"/>
-      <c r="M11" s="26" t="n"/>
-      <c r="N11" s="26" t="n"/>
-      <c r="O11" s="26" t="n"/>
+      <c r="D11" s="36" t="inlineStr">
+        <is>
+          <t>헛개차</t>
+        </is>
+      </c>
+      <c r="E11" s="36" t="inlineStr">
+        <is>
+          <t>변정옥</t>
+        </is>
+      </c>
+      <c r="F11" s="39" t="inlineStr">
+        <is>
+          <t>010-9471-0960</t>
+        </is>
+      </c>
+      <c r="G11" s="39" t="inlineStr">
+        <is>
+          <t>서울시 동작구 노량진동 신동아리버파크 708-1007</t>
+        </is>
+      </c>
+      <c r="H11" s="36" t="inlineStr">
+        <is>
+          <t>신한은행 110-391-292884변정옥</t>
+        </is>
+      </c>
+      <c r="I11" s="36" t="inlineStr">
+        <is>
+          <t>8309302178318</t>
+        </is>
+      </c>
+      <c r="J11" s="37" t="inlineStr">
+        <is>
+          <t>16290</t>
+        </is>
+      </c>
+      <c r="K11" s="36" t="n"/>
+      <c r="L11" s="36" t="n"/>
+      <c r="M11" s="36" t="n"/>
+      <c r="N11" s="36" t="n"/>
+      <c r="O11" s="36" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2534,8 +2786,8 @@
     <col width="31.25" customWidth="1" style="1" min="8" max="8"/>
     <col width="15.375" bestFit="1" customWidth="1" style="1" min="9" max="9"/>
     <col width="24" bestFit="1" customWidth="1" style="1" min="10" max="10"/>
-    <col width="9" customWidth="1" style="1" min="11" max="16"/>
-    <col width="9" customWidth="1" style="1" min="17" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="11" max="17"/>
+    <col width="9" customWidth="1" style="1" min="18" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" s="2" thickBot="1">
@@ -2835,8 +3087,8 @@
     <col width="31.25" customWidth="1" style="1" min="8" max="8"/>
     <col width="15.375" bestFit="1" customWidth="1" style="1" min="9" max="9"/>
     <col width="24" bestFit="1" customWidth="1" style="1" min="10" max="10"/>
-    <col width="9" customWidth="1" style="1" min="11" max="16"/>
-    <col width="9" customWidth="1" style="1" min="17" max="16384"/>
+    <col width="9" customWidth="1" style="1" min="11" max="17"/>
+    <col width="9" customWidth="1" style="1" min="18" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" s="2" thickBot="1">

--- a/이체정보.xlsx
+++ b/이체정보.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Sheet6" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Sheet7" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Sheet8" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Sheet9" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Sheet10" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="-" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="자주쓰는계좌" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Sheet1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet10" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="-" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="자주쓰는계좌" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -761,7 +761,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -856,168 +856,197 @@
       <c r="A2" s="16" t="n"/>
       <c r="B2" s="17" t="n"/>
       <c r="C2" s="17" t="n"/>
-      <c r="D2" s="27" t="inlineStr">
-        <is>
-          <t>헛개차</t>
-        </is>
-      </c>
-      <c r="E2" s="40" t="inlineStr">
-        <is>
-          <t>최지원</t>
-        </is>
-      </c>
-      <c r="F2" s="40" t="inlineStr">
-        <is>
-          <t>010-2343-1739</t>
-        </is>
-      </c>
-      <c r="G2" s="40" t="inlineStr">
-        <is>
-          <t>서울특별시 성북구 장위동 320 래미안장위퍼스트하이 502동 803호</t>
-        </is>
-      </c>
-      <c r="H2" s="40" t="inlineStr">
-        <is>
-          <t>하나은행/620238239229/최지원</t>
-        </is>
-      </c>
-      <c r="I2" s="40" t="inlineStr">
-        <is>
-          <t>12100107321953</t>
-        </is>
-      </c>
-      <c r="J2" s="41" t="inlineStr">
-        <is>
-          <t>16560</t>
-        </is>
-      </c>
-      <c r="K2" s="28" t="n"/>
-      <c r="L2" s="30" t="n"/>
-      <c r="M2" s="28" t="n"/>
-      <c r="N2" s="28" t="n"/>
-      <c r="O2" s="28" t="n"/>
-    </row>
-    <row r="3" ht="26.25" customHeight="1" s="2" thickBot="1">
+      <c r="D2" s="47" t="inlineStr">
+        <is>
+          <t>유다모가구매_네이버</t>
+        </is>
+      </c>
+      <c r="E2" s="28" t="inlineStr">
+        <is>
+          <t>금채연</t>
+        </is>
+      </c>
+      <c r="F2" s="28" t="inlineStr"/>
+      <c r="G2" s="28" t="inlineStr"/>
+      <c r="H2" s="28" t="inlineStr">
+        <is>
+          <t>케이뱅크 100-221-201670 금채연</t>
+        </is>
+      </c>
+      <c r="I2" s="28" t="inlineStr">
+        <is>
+          <t>940713-2685117</t>
+        </is>
+      </c>
+      <c r="J2" s="29" t="inlineStr">
+        <is>
+          <t>80000</t>
+        </is>
+      </c>
+      <c r="N2" s="38" t="n"/>
+      <c r="O2" s="38" t="n"/>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" s="2" thickBot="1">
       <c r="A3" s="16" t="n"/>
       <c r="B3" s="17" t="n"/>
       <c r="C3" s="17" t="n"/>
-      <c r="D3" s="27" t="inlineStr">
-        <is>
-          <t>헛개차</t>
+      <c r="D3" s="47" t="inlineStr">
+        <is>
+          <t>유다모가구매_네이버</t>
         </is>
       </c>
       <c r="E3" s="28" t="inlineStr">
         <is>
-          <t>김병준(이현진)</t>
-        </is>
-      </c>
-      <c r="F3" s="28" t="inlineStr">
-        <is>
-          <t>010-5319-6863</t>
-        </is>
-      </c>
-      <c r="G3" s="28" t="inlineStr">
-        <is>
-          <t>경기도 시흥시 중심상가로 248 610동 706호(정왕동주공6단지아파트)</t>
-        </is>
-      </c>
+          <t>차은해(지인걸)</t>
+        </is>
+      </c>
+      <c r="F3" s="28" t="inlineStr"/>
+      <c r="G3" s="28" t="inlineStr"/>
       <c r="H3" s="28" t="inlineStr">
         <is>
-          <t>신한은행110372644270이현진</t>
-        </is>
-      </c>
-      <c r="I3" s="29" t="inlineStr">
-        <is>
-          <t>890520 -  2177511</t>
+          <t>하나은행 748-910023-30007 지인걸</t>
+        </is>
+      </c>
+      <c r="I3" s="28" t="inlineStr">
+        <is>
+          <t>801002-1702912</t>
         </is>
       </c>
       <c r="J3" s="29" t="inlineStr">
         <is>
-          <t>16560</t>
+          <t>80000</t>
         </is>
       </c>
       <c r="K3" s="28" t="n"/>
       <c r="L3" s="28" t="n"/>
-      <c r="M3" s="28" t="n"/>
+      <c r="M3" s="29" t="n"/>
       <c r="N3" s="28" t="n"/>
       <c r="O3" s="28" t="n"/>
     </row>
-    <row r="4" ht="26.25" customHeight="1" s="2" thickBot="1">
+    <row r="4" ht="17.25" customHeight="1" s="2" thickBot="1">
       <c r="A4" s="16" t="n"/>
       <c r="B4" s="17" t="n"/>
       <c r="C4" s="17" t="n"/>
       <c r="D4" s="27" t="inlineStr">
         <is>
-          <t>헛개차</t>
+          <t>유다모가구매_네이버</t>
         </is>
       </c>
       <c r="E4" s="28" t="inlineStr">
         <is>
-          <t>이재진(송승희)</t>
-        </is>
-      </c>
-      <c r="F4" s="28" t="inlineStr">
-        <is>
-          <t>010-2687-6226</t>
-        </is>
-      </c>
-      <c r="G4" s="28" t="inlineStr">
-        <is>
-          <t>서울특별시 관악구 조원로 25 신림동 힐스테이트 관악뉴포레 106동 805호</t>
-        </is>
-      </c>
+          <t>오진영</t>
+        </is>
+      </c>
+      <c r="F4" s="28" t="inlineStr"/>
+      <c r="G4" s="28" t="inlineStr"/>
       <c r="H4" s="28" t="inlineStr">
         <is>
-          <t>우리은행 1002-451-793658 송승희</t>
+          <t>케이뱅크 0010-3905-7260 오진영</t>
         </is>
       </c>
       <c r="I4" s="28" t="inlineStr">
         <is>
-          <t>931111-2019310</t>
+          <t>950905-2069110</t>
         </is>
       </c>
       <c r="J4" s="29" t="inlineStr">
         <is>
-          <t>16560</t>
+          <t>87000</t>
         </is>
       </c>
       <c r="K4" s="28" t="n"/>
-      <c r="L4" s="30" t="n"/>
-      <c r="M4" s="28" t="n"/>
+      <c r="L4" s="28" t="n"/>
+      <c r="M4" s="29" t="n"/>
       <c r="N4" s="28" t="n"/>
       <c r="O4" s="28" t="n"/>
     </row>
-    <row r="5" ht="17.25" customHeight="1" s="2" thickBot="1">
+    <row r="5" ht="26.25" customHeight="1" s="2" thickBot="1">
       <c r="A5" s="16" t="n"/>
       <c r="B5" s="17" t="n"/>
       <c r="C5" s="25" t="n"/>
-      <c r="D5" s="27" t="n"/>
-      <c r="E5" s="28" t="n"/>
-      <c r="F5" s="28" t="n"/>
-      <c r="G5" s="28" t="n"/>
-      <c r="H5" s="28" t="n"/>
-      <c r="I5" s="28" t="n"/>
-      <c r="J5" s="29" t="n"/>
+      <c r="D5" s="27" t="inlineStr">
+        <is>
+          <t>과수원 몰랑젤리</t>
+        </is>
+      </c>
+      <c r="E5" s="28" t="inlineStr">
+        <is>
+          <t>서가람</t>
+        </is>
+      </c>
+      <c r="F5" s="28" t="inlineStr">
+        <is>
+          <t>010-9832-0414</t>
+        </is>
+      </c>
+      <c r="G5" s="28" t="inlineStr">
+        <is>
+          <t>대전 대덕구 대화동 35-607번지</t>
+        </is>
+      </c>
+      <c r="H5" s="28" t="inlineStr">
+        <is>
+          <t>하나 622-910272-30807 서가람</t>
+        </is>
+      </c>
+      <c r="I5" s="29" t="inlineStr">
+        <is>
+          <t>880127-2403111</t>
+        </is>
+      </c>
+      <c r="J5" s="29" t="inlineStr">
+        <is>
+          <t>9700</t>
+        </is>
+      </c>
       <c r="K5" s="28" t="n"/>
       <c r="L5" s="28" t="n"/>
-      <c r="M5" s="28" t="n"/>
+      <c r="M5" s="29" t="n"/>
       <c r="N5" s="28" t="n"/>
       <c r="O5" s="28" t="n"/>
     </row>
-    <row r="6" ht="17.25" customHeight="1" s="2" thickBot="1">
+    <row r="6" ht="26.25" customHeight="1" s="2" thickBot="1">
       <c r="A6" s="16" t="n"/>
       <c r="B6" s="17" t="n"/>
       <c r="C6" s="25" t="n"/>
-      <c r="D6" s="27" t="n"/>
-      <c r="E6" s="28" t="n"/>
-      <c r="F6" s="28" t="n"/>
-      <c r="G6" s="42" t="n"/>
-      <c r="H6" s="28" t="n"/>
-      <c r="I6" s="28" t="n"/>
-      <c r="J6" s="29" t="n"/>
+      <c r="D6" s="27" t="inlineStr">
+        <is>
+          <t>과수원 몰랑젤리</t>
+        </is>
+      </c>
+      <c r="E6" s="28" t="inlineStr">
+        <is>
+          <t>여미선</t>
+        </is>
+      </c>
+      <c r="F6" s="28" t="inlineStr">
+        <is>
+          <t>010-6483-7433</t>
+        </is>
+      </c>
+      <c r="G6" s="28" t="inlineStr">
+        <is>
+          <t>경기도 용인시 쉬구 신봉동 873 신봉마을엘지자이1차아파트 112동 1201호</t>
+        </is>
+      </c>
+      <c r="H6" s="28" t="inlineStr">
+        <is>
+          <t>토스뱅크 1000-2938-5730 여미선</t>
+        </is>
+      </c>
+      <c r="I6" s="28" t="inlineStr">
+        <is>
+          <t>810507-2808025</t>
+        </is>
+      </c>
+      <c r="J6" s="29" t="inlineStr">
+        <is>
+          <t>9700</t>
+        </is>
+      </c>
       <c r="K6" s="28" t="n"/>
       <c r="L6" s="28" t="n"/>
-      <c r="M6" s="28" t="n"/>
+      <c r="M6" s="29" t="n"/>
       <c r="N6" s="28" t="n"/>
       <c r="O6" s="28" t="n"/>
     </row>
@@ -1027,35 +1056,35 @@
       <c r="C7" s="25" t="n"/>
       <c r="D7" s="27" t="n"/>
       <c r="E7" s="28" t="n"/>
-      <c r="F7" s="43" t="n"/>
-      <c r="G7" s="44" t="n"/>
+      <c r="F7" s="28" t="n"/>
+      <c r="G7" s="28" t="n"/>
       <c r="H7" s="28" t="n"/>
       <c r="I7" s="28" t="n"/>
       <c r="J7" s="29" t="n"/>
       <c r="K7" s="28" t="n"/>
-      <c r="L7" s="30" t="n"/>
-      <c r="M7" s="28" t="n"/>
+      <c r="L7" s="28" t="n"/>
+      <c r="M7" s="29" t="n"/>
       <c r="N7" s="28" t="n"/>
       <c r="O7" s="28" t="n"/>
     </row>
-    <row r="8" ht="26.25" customHeight="1" s="2" thickBot="1">
+    <row r="8" ht="17.25" customHeight="1" s="2" thickBot="1">
       <c r="A8" s="16" t="n"/>
       <c r="B8" s="17" t="n"/>
       <c r="C8" s="25" t="n"/>
       <c r="D8" s="27" t="n"/>
       <c r="E8" s="28" t="n"/>
-      <c r="F8" s="43" t="n"/>
-      <c r="G8" s="44" t="n"/>
-      <c r="H8" s="44" t="n"/>
+      <c r="F8" s="28" t="n"/>
+      <c r="G8" s="28" t="n"/>
+      <c r="H8" s="28" t="n"/>
       <c r="I8" s="28" t="n"/>
       <c r="J8" s="29" t="n"/>
       <c r="K8" s="28" t="n"/>
       <c r="L8" s="28" t="n"/>
-      <c r="M8" s="28" t="n"/>
+      <c r="M8" s="29" t="n"/>
       <c r="N8" s="28" t="n"/>
       <c r="O8" s="28" t="n"/>
     </row>
-    <row r="9" ht="17.25" customHeight="1" s="2" thickBot="1">
+    <row r="9" ht="26.25" customHeight="1" s="2" thickBot="1">
       <c r="A9" s="16" t="n"/>
       <c r="B9" s="17" t="n"/>
       <c r="C9" s="25" t="n"/>
@@ -1067,8 +1096,8 @@
       <c r="I9" s="28" t="n"/>
       <c r="J9" s="29" t="n"/>
       <c r="K9" s="28" t="n"/>
-      <c r="L9" s="30" t="n"/>
-      <c r="M9" s="28" t="n"/>
+      <c r="L9" s="28" t="n"/>
+      <c r="M9" s="29" t="n"/>
       <c r="N9" s="28" t="n"/>
       <c r="O9" s="28" t="n"/>
     </row>
@@ -1083,9 +1112,9 @@
       <c r="H10" s="28" t="n"/>
       <c r="I10" s="28" t="n"/>
       <c r="J10" s="29" t="n"/>
-      <c r="K10" s="30" t="n"/>
-      <c r="L10" s="30" t="n"/>
-      <c r="M10" s="30" t="n"/>
+      <c r="K10" s="28" t="n"/>
+      <c r="L10" s="28" t="n"/>
+      <c r="M10" s="29" t="n"/>
       <c r="N10" s="30" t="n"/>
       <c r="O10" s="28" t="n"/>
     </row>
@@ -1093,16 +1122,16 @@
       <c r="A11" s="16" t="n"/>
       <c r="B11" s="18" t="n"/>
       <c r="C11" s="19" t="n"/>
-      <c r="D11" s="45" t="n"/>
-      <c r="E11" s="45" t="n"/>
-      <c r="F11" s="45" t="n"/>
-      <c r="G11" s="45" t="n"/>
-      <c r="H11" s="45" t="n"/>
-      <c r="I11" s="45" t="n"/>
-      <c r="J11" s="46" t="n"/>
-      <c r="K11" s="26" t="n"/>
-      <c r="L11" s="26" t="n"/>
-      <c r="M11" s="26" t="n"/>
+      <c r="D11" s="36" t="n"/>
+      <c r="E11" s="36" t="n"/>
+      <c r="F11" s="36" t="n"/>
+      <c r="G11" s="39" t="n"/>
+      <c r="H11" s="36" t="n"/>
+      <c r="I11" s="39" t="n"/>
+      <c r="J11" s="37" t="n"/>
+      <c r="K11" s="36" t="n"/>
+      <c r="L11" s="36" t="n"/>
+      <c r="M11" s="37" t="n"/>
       <c r="N11" s="26" t="n"/>
       <c r="O11" s="26" t="n"/>
     </row>
@@ -1113,6 +1142,34 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="D3:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1131,7 +1188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1623,559 +1680,6 @@
           <t>우리은행 1005-503-521940</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O11"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <cols>
-    <col width="9" customWidth="1" style="1" min="1" max="2"/>
-    <col width="0.875" customWidth="1" style="1" min="3" max="3"/>
-    <col width="14.25" bestFit="1" customWidth="1" style="20" min="4" max="4"/>
-    <col width="10.125" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
-    <col width="15.125" customWidth="1" style="1" min="6" max="6"/>
-    <col width="62.25" bestFit="1" customWidth="1" style="1" min="7" max="7"/>
-    <col width="31.25" customWidth="1" style="1" min="8" max="8"/>
-    <col width="15.375" bestFit="1" customWidth="1" style="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" style="1" min="10" max="10"/>
-    <col width="9" customWidth="1" style="1" min="11" max="16"/>
-    <col width="9" customWidth="1" style="1" min="17" max="16384"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="17.25" customHeight="1" s="2" thickBot="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>번호</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>날짜</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="n"/>
-      <c r="D1" s="5" t="inlineStr">
-        <is>
-          <t>제품 및 내역</t>
-        </is>
-      </c>
-      <c r="E1" s="6" t="inlineStr">
-        <is>
-          <t>이름</t>
-        </is>
-      </c>
-      <c r="F1" s="7" t="inlineStr">
-        <is>
-          <t>연락처</t>
-        </is>
-      </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>주소</t>
-        </is>
-      </c>
-      <c r="H1" s="8" t="inlineStr">
-        <is>
-          <t>계좌번호</t>
-        </is>
-      </c>
-      <c r="I1" s="9" t="inlineStr">
-        <is>
-          <t>주민번호</t>
-        </is>
-      </c>
-      <c r="J1" s="8" t="inlineStr">
-        <is>
-          <t>금액</t>
-        </is>
-      </c>
-      <c r="K1" s="10" t="inlineStr">
-        <is>
-          <t>구매여부</t>
-        </is>
-      </c>
-      <c r="L1" s="11" t="inlineStr">
-        <is>
-          <t>포토리뷰</t>
-        </is>
-      </c>
-      <c r="M1" s="10" t="inlineStr">
-        <is>
-          <t>리뷰작성</t>
-        </is>
-      </c>
-      <c r="N1" s="7" t="inlineStr">
-        <is>
-          <t>캡쳐여부</t>
-        </is>
-      </c>
-      <c r="O1" s="7" t="inlineStr">
-        <is>
-          <t>비고</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" s="2" thickBot="1">
-      <c r="A2" s="16" t="n"/>
-      <c r="B2" s="17" t="n"/>
-      <c r="C2" s="17" t="n"/>
-      <c r="D2" s="47" t="inlineStr">
-        <is>
-          <t>비빔칩</t>
-        </is>
-      </c>
-      <c r="E2" s="28" t="inlineStr">
-        <is>
-          <t>하은경</t>
-        </is>
-      </c>
-      <c r="F2" s="28" t="inlineStr">
-        <is>
-          <t>010-2850-1033</t>
-        </is>
-      </c>
-      <c r="G2" s="28" t="inlineStr">
-        <is>
-          <t>경상북도 구미시 고아읍 들성로9길 22 미도힐스 801호</t>
-        </is>
-      </c>
-      <c r="H2" s="28" t="inlineStr">
-        <is>
-          <t>신한은행 370-12-077565 하은경</t>
-        </is>
-      </c>
-      <c r="I2" s="28" t="inlineStr">
-        <is>
-          <t>771113-2057511</t>
-        </is>
-      </c>
-      <c r="J2" s="29" t="inlineStr">
-        <is>
-          <t>2420</t>
-        </is>
-      </c>
-      <c r="N2" s="38" t="n"/>
-      <c r="O2" s="38" t="n"/>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" s="2" thickBot="1">
-      <c r="A3" s="16" t="n"/>
-      <c r="B3" s="17" t="n"/>
-      <c r="C3" s="17" t="n"/>
-      <c r="D3" s="47" t="inlineStr">
-        <is>
-          <t>비빔칩</t>
-        </is>
-      </c>
-      <c r="E3" s="28" t="inlineStr">
-        <is>
-          <t>이일주(하은경)</t>
-        </is>
-      </c>
-      <c r="F3" s="28" t="inlineStr">
-        <is>
-          <t>010-6443-1033</t>
-        </is>
-      </c>
-      <c r="G3" s="28" t="inlineStr">
-        <is>
-          <t>경상북도 구미시 고아읍 문장로22길 5-19 201호 기탄</t>
-        </is>
-      </c>
-      <c r="H3" s="28" t="inlineStr">
-        <is>
-          <t>신한은행 370-12-077565 하은경</t>
-        </is>
-      </c>
-      <c r="I3" s="28" t="inlineStr">
-        <is>
-          <t>771113-2057511</t>
-        </is>
-      </c>
-      <c r="J3" s="29" t="inlineStr">
-        <is>
-          <t>2420</t>
-        </is>
-      </c>
-      <c r="K3" s="28" t="n"/>
-      <c r="L3" s="28" t="n"/>
-      <c r="M3" s="29" t="n"/>
-      <c r="N3" s="28" t="n"/>
-      <c r="O3" s="28" t="n"/>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" s="2" thickBot="1">
-      <c r="A4" s="16" t="n"/>
-      <c r="B4" s="17" t="n"/>
-      <c r="C4" s="17" t="n"/>
-      <c r="D4" s="27" t="inlineStr">
-        <is>
-          <t>비빔칩</t>
-        </is>
-      </c>
-      <c r="E4" s="28" t="inlineStr">
-        <is>
-          <t>하용익(하은경)</t>
-        </is>
-      </c>
-      <c r="F4" s="28" t="inlineStr">
-        <is>
-          <t>010-2316-1033</t>
-        </is>
-      </c>
-      <c r="G4" s="28" t="inlineStr">
-        <is>
-          <t>서울특별시 송파구 송이로32길 37 문정푸르지오 2단지 202-405</t>
-        </is>
-      </c>
-      <c r="H4" s="28" t="inlineStr">
-        <is>
-          <t>신한은행 370-12-077565 하은경</t>
-        </is>
-      </c>
-      <c r="I4" s="28" t="inlineStr">
-        <is>
-          <t>771113-2057511</t>
-        </is>
-      </c>
-      <c r="J4" s="29" t="inlineStr">
-        <is>
-          <t>2420</t>
-        </is>
-      </c>
-      <c r="K4" s="28" t="n"/>
-      <c r="L4" s="28" t="n"/>
-      <c r="M4" s="29" t="n"/>
-      <c r="N4" s="28" t="n"/>
-      <c r="O4" s="28" t="n"/>
-    </row>
-    <row r="5" ht="26.25" customHeight="1" s="2" thickBot="1">
-      <c r="A5" s="16" t="n"/>
-      <c r="B5" s="17" t="n"/>
-      <c r="C5" s="25" t="n"/>
-      <c r="D5" s="27" t="inlineStr">
-        <is>
-          <t>비빔칩</t>
-        </is>
-      </c>
-      <c r="E5" s="28" t="inlineStr">
-        <is>
-          <t>하윤경(하은경)</t>
-        </is>
-      </c>
-      <c r="F5" s="28" t="inlineStr">
-        <is>
-          <t>010-3996-1033</t>
-        </is>
-      </c>
-      <c r="G5" s="28" t="inlineStr">
-        <is>
-          <t>서울특별시 강ㄴ마구 일원동 688 상록 스타힐스 905동 303호</t>
-        </is>
-      </c>
-      <c r="H5" s="28" t="inlineStr">
-        <is>
-          <t>신한은행 370-12-077565 하은경</t>
-        </is>
-      </c>
-      <c r="I5" s="29" t="inlineStr">
-        <is>
-          <t>771113-2057511</t>
-        </is>
-      </c>
-      <c r="J5" s="29" t="inlineStr">
-        <is>
-          <t>2420</t>
-        </is>
-      </c>
-      <c r="K5" s="28" t="n"/>
-      <c r="L5" s="28" t="n"/>
-      <c r="M5" s="29" t="n"/>
-      <c r="N5" s="28" t="n"/>
-      <c r="O5" s="28" t="n"/>
-    </row>
-    <row r="6" ht="26.25" customHeight="1" s="2" thickBot="1">
-      <c r="A6" s="16" t="n"/>
-      <c r="B6" s="17" t="n"/>
-      <c r="C6" s="25" t="n"/>
-      <c r="D6" s="27" t="inlineStr">
-        <is>
-          <t>비빔칩</t>
-        </is>
-      </c>
-      <c r="E6" s="28" t="inlineStr">
-        <is>
-          <t>구혜진</t>
-        </is>
-      </c>
-      <c r="F6" s="28" t="inlineStr">
-        <is>
-          <t>010-6532-3315</t>
-        </is>
-      </c>
-      <c r="G6" s="28" t="inlineStr">
-        <is>
-          <t>부산광역시 해운대구 양운로37번길 11 103동 404호(좌동 현대아파트)</t>
-        </is>
-      </c>
-      <c r="H6" s="28" t="inlineStr">
-        <is>
-          <t>대구은행 /222-08-011656-9 /구혜진</t>
-        </is>
-      </c>
-      <c r="I6" s="28" t="inlineStr">
-        <is>
-          <t>870405-2797912</t>
-        </is>
-      </c>
-      <c r="J6" s="29" t="inlineStr">
-        <is>
-          <t>2420</t>
-        </is>
-      </c>
-      <c r="K6" s="28" t="n"/>
-      <c r="L6" s="28" t="n"/>
-      <c r="M6" s="29" t="n"/>
-      <c r="N6" s="28" t="n"/>
-      <c r="O6" s="28" t="n"/>
-    </row>
-    <row r="7" ht="17.25" customHeight="1" s="2" thickBot="1">
-      <c r="A7" s="16" t="n"/>
-      <c r="B7" s="17" t="n"/>
-      <c r="C7" s="25" t="n"/>
-      <c r="D7" s="27" t="inlineStr">
-        <is>
-          <t>비빔칩</t>
-        </is>
-      </c>
-      <c r="E7" s="28" t="inlineStr">
-        <is>
-          <t>강진희(강경희)</t>
-        </is>
-      </c>
-      <c r="F7" s="28" t="inlineStr">
-        <is>
-          <t>010-5751-7544</t>
-        </is>
-      </c>
-      <c r="G7" s="28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">인천광역시 남동구 구월동 1527 더블루시티 614호 </t>
-        </is>
-      </c>
-      <c r="H7" s="28" t="inlineStr">
-        <is>
-          <t>농협/3524347112243/강경희</t>
-        </is>
-      </c>
-      <c r="I7" s="28" t="inlineStr">
-        <is>
-          <t>920926-2551017</t>
-        </is>
-      </c>
-      <c r="J7" s="29" t="inlineStr">
-        <is>
-          <t>2420</t>
-        </is>
-      </c>
-      <c r="K7" s="28" t="n"/>
-      <c r="L7" s="28" t="n"/>
-      <c r="M7" s="29" t="n"/>
-      <c r="N7" s="28" t="n"/>
-      <c r="O7" s="28" t="n"/>
-    </row>
-    <row r="8" ht="17.25" customHeight="1" s="2" thickBot="1">
-      <c r="A8" s="16" t="n"/>
-      <c r="B8" s="17" t="n"/>
-      <c r="C8" s="25" t="n"/>
-      <c r="D8" s="27" t="inlineStr">
-        <is>
-          <t>비빔칩</t>
-        </is>
-      </c>
-      <c r="E8" s="28" t="inlineStr">
-        <is>
-          <t>이가영</t>
-        </is>
-      </c>
-      <c r="F8" s="28" t="inlineStr">
-        <is>
-          <t>010-6416-4651</t>
-        </is>
-      </c>
-      <c r="G8" s="28" t="inlineStr">
-        <is>
-          <t>경기도 용인시 수지구 풍덕천로 52 808동 1001호</t>
-        </is>
-      </c>
-      <c r="H8" s="28" t="inlineStr">
-        <is>
-          <t>국민은행 / 20390204123128 / 이가영</t>
-        </is>
-      </c>
-      <c r="I8" s="28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 911220-2157611</t>
-        </is>
-      </c>
-      <c r="J8" s="29" t="inlineStr">
-        <is>
-          <t>2420</t>
-        </is>
-      </c>
-      <c r="K8" s="28" t="n"/>
-      <c r="L8" s="28" t="n"/>
-      <c r="M8" s="29" t="n"/>
-      <c r="N8" s="28" t="n"/>
-      <c r="O8" s="28" t="n"/>
-    </row>
-    <row r="9" ht="26.25" customHeight="1" s="2" thickBot="1">
-      <c r="A9" s="16" t="n"/>
-      <c r="B9" s="17" t="n"/>
-      <c r="C9" s="25" t="n"/>
-      <c r="D9" s="27" t="inlineStr">
-        <is>
-          <t>비빔칩</t>
-        </is>
-      </c>
-      <c r="E9" s="28" t="inlineStr">
-        <is>
-          <t>오수정(김서하)</t>
-        </is>
-      </c>
-      <c r="F9" s="28" t="inlineStr">
-        <is>
-          <t>010-9112-5218</t>
-        </is>
-      </c>
-      <c r="G9" s="28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">대구광역시 달서구 유천동 605 대구워배아이파크 111동 2004호 </t>
-        </is>
-      </c>
-      <c r="H9" s="28" t="inlineStr">
-        <is>
-          <t>미래에셋400868573860김서하</t>
-        </is>
-      </c>
-      <c r="I9" s="28" t="inlineStr">
-        <is>
-          <t>940831-2768314</t>
-        </is>
-      </c>
-      <c r="J9" s="29" t="inlineStr">
-        <is>
-          <t>2420</t>
-        </is>
-      </c>
-      <c r="K9" s="28" t="n"/>
-      <c r="L9" s="28" t="n"/>
-      <c r="M9" s="29" t="n"/>
-      <c r="N9" s="28" t="n"/>
-      <c r="O9" s="28" t="n"/>
-    </row>
-    <row r="10" ht="17.25" customHeight="1" s="2" thickBot="1">
-      <c r="A10" s="16" t="n"/>
-      <c r="B10" s="18" t="n"/>
-      <c r="C10" s="19" t="n"/>
-      <c r="D10" s="27" t="inlineStr">
-        <is>
-          <t>비빔칩</t>
-        </is>
-      </c>
-      <c r="E10" s="28" t="inlineStr">
-        <is>
-          <t>김지혜(김서하)</t>
-        </is>
-      </c>
-      <c r="F10" s="28" t="inlineStr">
-        <is>
-          <t>010-2712-4371</t>
-        </is>
-      </c>
-      <c r="G10" s="28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">대구광역시 달서구 유천동 605 대구워배아이파크 111동 2004호 </t>
-        </is>
-      </c>
-      <c r="H10" s="28" t="inlineStr">
-        <is>
-          <t>미래에셋400868573860김서하</t>
-        </is>
-      </c>
-      <c r="I10" s="28" t="inlineStr">
-        <is>
-          <t>940831-2768314</t>
-        </is>
-      </c>
-      <c r="J10" s="29" t="inlineStr">
-        <is>
-          <t>2420</t>
-        </is>
-      </c>
-      <c r="K10" s="28" t="n"/>
-      <c r="L10" s="28" t="n"/>
-      <c r="M10" s="29" t="n"/>
-      <c r="N10" s="30" t="n"/>
-      <c r="O10" s="28" t="n"/>
-    </row>
-    <row r="11" ht="17.25" customHeight="1" s="2" thickBot="1">
-      <c r="A11" s="16" t="n"/>
-      <c r="B11" s="18" t="n"/>
-      <c r="C11" s="19" t="n"/>
-      <c r="D11" s="36" t="inlineStr">
-        <is>
-          <t>비빔칩</t>
-        </is>
-      </c>
-      <c r="E11" s="36" t="inlineStr">
-        <is>
-          <t>김병준(이현진)</t>
-        </is>
-      </c>
-      <c r="F11" s="36" t="inlineStr">
-        <is>
-          <t>010-5319-6863</t>
-        </is>
-      </c>
-      <c r="G11" s="39" t="inlineStr">
-        <is>
-          <t>경기도 시흥시 중심상가로 248 610동 706호(정왕동주공6단지아파트)</t>
-        </is>
-      </c>
-      <c r="H11" s="36" t="inlineStr">
-        <is>
-          <t>신한은행110372644270이현진</t>
-        </is>
-      </c>
-      <c r="I11" s="39" t="inlineStr">
-        <is>
-          <t>890520 -  2177511</t>
-        </is>
-      </c>
-      <c r="J11" s="37" t="inlineStr">
-        <is>
-          <t>2420</t>
-        </is>
-      </c>
-      <c r="K11" s="36" t="n"/>
-      <c r="L11" s="36" t="n"/>
-      <c r="M11" s="37" t="n"/>
-      <c r="N11" s="26" t="n"/>
-      <c r="O11" s="26" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2294,27 +1798,27 @@
       </c>
       <c r="E2" s="28" t="inlineStr">
         <is>
-          <t>강진희(강경희)</t>
+          <t>명예빈</t>
         </is>
       </c>
       <c r="F2" s="28" t="inlineStr">
         <is>
-          <t>010-5751-7544</t>
+          <t>010-3075-2413</t>
         </is>
       </c>
       <c r="G2" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve">인천광역시 남동구 구월동 1527 더블루시티 614호 </t>
+          <t>서울특별시 구로구 공원로6길 25 구로동 비즈트위트레인보루 511호</t>
         </is>
       </c>
       <c r="H2" s="28" t="inlineStr">
         <is>
-          <t>농협/3524347112243/강경희</t>
+          <t>농협352-1887-1863-33명예빈</t>
         </is>
       </c>
       <c r="I2" s="28" t="inlineStr">
         <is>
-          <t>920926-2551017</t>
+          <t>030831-4011517</t>
         </is>
       </c>
       <c r="J2" s="29" t="inlineStr">
@@ -2332,41 +1836,13 @@
       <c r="A3" s="16" t="n"/>
       <c r="B3" s="17" t="n"/>
       <c r="C3" s="17" t="n"/>
-      <c r="D3" s="27" t="inlineStr">
-        <is>
-          <t>헛개차</t>
-        </is>
-      </c>
-      <c r="E3" s="28" t="inlineStr">
-        <is>
-          <t>송주연</t>
-        </is>
-      </c>
-      <c r="F3" s="28" t="inlineStr">
-        <is>
-          <t>010-5004-1140</t>
-        </is>
-      </c>
-      <c r="G3" s="28" t="inlineStr">
-        <is>
-          <t>서울특별시 강동구 양재대로103길 15 403호(성내동)</t>
-        </is>
-      </c>
-      <c r="H3" s="28" t="inlineStr">
-        <is>
-          <t>우리 1002-151-686068 송주연</t>
-        </is>
-      </c>
-      <c r="I3" s="28" t="inlineStr">
-        <is>
-          <t>970625-2024716</t>
-        </is>
-      </c>
-      <c r="J3" s="29" t="inlineStr">
-        <is>
-          <t>16560</t>
-        </is>
-      </c>
+      <c r="D3" s="27" t="n"/>
+      <c r="E3" s="28" t="n"/>
+      <c r="F3" s="28" t="n"/>
+      <c r="G3" s="28" t="n"/>
+      <c r="H3" s="28" t="n"/>
+      <c r="I3" s="28" t="n"/>
+      <c r="J3" s="29" t="n"/>
       <c r="L3" s="28" t="n"/>
       <c r="M3" s="28" t="n"/>
       <c r="N3" s="28" t="n"/>
@@ -2376,41 +1852,13 @@
       <c r="A4" s="16" t="n"/>
       <c r="B4" s="17" t="n"/>
       <c r="C4" s="17" t="n"/>
-      <c r="D4" s="27" t="inlineStr">
-        <is>
-          <t>헛개차</t>
-        </is>
-      </c>
-      <c r="E4" s="28" t="inlineStr">
-        <is>
-          <t>강정민</t>
-        </is>
-      </c>
-      <c r="F4" s="28" t="inlineStr">
-        <is>
-          <t>010-9395-0228</t>
-        </is>
-      </c>
-      <c r="G4" s="28" t="inlineStr">
-        <is>
-          <t>부산광역시 동래구 동ㄹ로57번길 94 204-2204(명륜동 힐스테이트 명륜 트라디움)</t>
-        </is>
-      </c>
-      <c r="H4" s="28" t="inlineStr">
-        <is>
-          <t>우리1002056508858강정민</t>
-        </is>
-      </c>
-      <c r="I4" s="28" t="inlineStr">
-        <is>
-          <t>8702131125315</t>
-        </is>
-      </c>
-      <c r="J4" s="29" t="inlineStr">
-        <is>
-          <t>16560</t>
-        </is>
-      </c>
+      <c r="D4" s="27" t="n"/>
+      <c r="E4" s="28" t="n"/>
+      <c r="F4" s="28" t="n"/>
+      <c r="G4" s="28" t="n"/>
+      <c r="H4" s="28" t="n"/>
+      <c r="I4" s="28" t="n"/>
+      <c r="J4" s="29" t="n"/>
       <c r="L4" s="28" t="n"/>
       <c r="M4" s="28" t="n"/>
       <c r="N4" s="28" t="n"/>
@@ -2420,41 +1868,13 @@
       <c r="A5" s="16" t="n"/>
       <c r="B5" s="17" t="n"/>
       <c r="C5" s="25" t="n"/>
-      <c r="D5" s="27" t="inlineStr">
-        <is>
-          <t>헛개차</t>
-        </is>
-      </c>
-      <c r="E5" s="28" t="inlineStr">
-        <is>
-          <t>양혜선</t>
-        </is>
-      </c>
-      <c r="F5" s="28" t="inlineStr">
-        <is>
-          <t>010-3279-3027</t>
-        </is>
-      </c>
-      <c r="G5" s="28" t="inlineStr">
-        <is>
-          <t>경기도 용인시 수지구 풍덕천동 700-1 현대아파트 101동 902호</t>
-        </is>
-      </c>
-      <c r="H5" s="28" t="inlineStr">
-        <is>
-          <t>국민은행 92323519743양혜선</t>
-        </is>
-      </c>
-      <c r="I5" s="28" t="inlineStr">
-        <is>
-          <t>930418-2024018</t>
-        </is>
-      </c>
-      <c r="J5" s="29" t="inlineStr">
-        <is>
-          <t>16560</t>
-        </is>
-      </c>
+      <c r="D5" s="27" t="n"/>
+      <c r="E5" s="28" t="n"/>
+      <c r="F5" s="28" t="n"/>
+      <c r="G5" s="28" t="n"/>
+      <c r="H5" s="28" t="n"/>
+      <c r="I5" s="28" t="n"/>
+      <c r="J5" s="29" t="n"/>
       <c r="L5" s="28" t="n"/>
       <c r="M5" s="28" t="n"/>
       <c r="N5" s="28" t="n"/>
@@ -2464,41 +1884,13 @@
       <c r="A6" s="16" t="n"/>
       <c r="B6" s="17" t="n"/>
       <c r="C6" s="25" t="n"/>
-      <c r="D6" s="27" t="inlineStr">
-        <is>
-          <t>헛개차</t>
-        </is>
-      </c>
-      <c r="E6" s="28" t="inlineStr">
-        <is>
-          <t>하용익(하은경)</t>
-        </is>
-      </c>
-      <c r="F6" s="28" t="inlineStr">
-        <is>
-          <t>010-2316-1033</t>
-        </is>
-      </c>
-      <c r="G6" s="28" t="inlineStr">
-        <is>
-          <t>서울특별시 송파구 송이로32길 37 문정푸르지오 2단지 202-405 (문정동문정푸르지오)</t>
-        </is>
-      </c>
-      <c r="H6" s="28" t="inlineStr">
-        <is>
-          <t>신한은행 370-12-077565 하은경</t>
-        </is>
-      </c>
-      <c r="I6" s="28" t="inlineStr">
-        <is>
-          <t>771113-2057511</t>
-        </is>
-      </c>
-      <c r="J6" s="29" t="inlineStr">
-        <is>
-          <t>16560</t>
-        </is>
-      </c>
+      <c r="D6" s="27" t="n"/>
+      <c r="E6" s="28" t="n"/>
+      <c r="F6" s="28" t="n"/>
+      <c r="G6" s="28" t="n"/>
+      <c r="H6" s="28" t="n"/>
+      <c r="I6" s="28" t="n"/>
+      <c r="J6" s="29" t="n"/>
       <c r="L6" s="28" t="n"/>
       <c r="M6" s="28" t="n"/>
       <c r="N6" s="28" t="n"/>
@@ -2508,41 +1900,13 @@
       <c r="A7" s="16" t="n"/>
       <c r="B7" s="17" t="n"/>
       <c r="C7" s="25" t="n"/>
-      <c r="D7" s="27" t="inlineStr">
-        <is>
-          <t>헛개차</t>
-        </is>
-      </c>
-      <c r="E7" s="28" t="inlineStr">
-        <is>
-          <t>하은경</t>
-        </is>
-      </c>
-      <c r="F7" s="30" t="inlineStr">
-        <is>
-          <t>010-2850-1033</t>
-        </is>
-      </c>
-      <c r="G7" s="30" t="inlineStr">
-        <is>
-          <t>경상북도 구미시 고아읍 들성로9길 22 미도힐스 801호</t>
-        </is>
-      </c>
-      <c r="H7" s="28" t="inlineStr">
-        <is>
-          <t>신한은행 370-12-077565 하은경</t>
-        </is>
-      </c>
-      <c r="I7" s="28" t="inlineStr">
-        <is>
-          <t>771113-2057511</t>
-        </is>
-      </c>
-      <c r="J7" s="29" t="inlineStr">
-        <is>
-          <t>16560</t>
-        </is>
-      </c>
+      <c r="D7" s="27" t="n"/>
+      <c r="E7" s="28" t="n"/>
+      <c r="F7" s="30" t="n"/>
+      <c r="G7" s="30" t="n"/>
+      <c r="H7" s="28" t="n"/>
+      <c r="I7" s="28" t="n"/>
+      <c r="J7" s="29" t="n"/>
       <c r="K7" s="28" t="n"/>
       <c r="L7" s="28" t="n"/>
       <c r="M7" s="28" t="n"/>
@@ -2553,41 +1917,13 @@
       <c r="A8" s="16" t="n"/>
       <c r="B8" s="17" t="n"/>
       <c r="C8" s="25" t="n"/>
-      <c r="D8" s="27" t="inlineStr">
-        <is>
-          <t>헛개차</t>
-        </is>
-      </c>
-      <c r="E8" s="28" t="inlineStr">
-        <is>
-          <t>최완혁(오새은)</t>
-        </is>
-      </c>
-      <c r="F8" s="30" t="inlineStr">
-        <is>
-          <t>010-5351-5285</t>
-        </is>
-      </c>
-      <c r="G8" s="30" t="inlineStr">
-        <is>
-          <t>경기도 남양주시 오남읍 오남리 439 신우아이딜아파트 211-301</t>
-        </is>
-      </c>
-      <c r="H8" s="28" t="inlineStr">
-        <is>
-          <t>신한/110-266-853160/오새은</t>
-        </is>
-      </c>
-      <c r="I8" s="28" t="inlineStr">
-        <is>
-          <t>870502-2019016</t>
-        </is>
-      </c>
-      <c r="J8" s="29" t="inlineStr">
-        <is>
-          <t>16560</t>
-        </is>
-      </c>
+      <c r="D8" s="27" t="n"/>
+      <c r="E8" s="28" t="n"/>
+      <c r="F8" s="30" t="n"/>
+      <c r="G8" s="30" t="n"/>
+      <c r="H8" s="28" t="n"/>
+      <c r="I8" s="28" t="n"/>
+      <c r="J8" s="29" t="n"/>
       <c r="K8" s="28" t="n"/>
       <c r="L8" s="28" t="n"/>
       <c r="M8" s="28" t="n"/>
@@ -2598,41 +1934,13 @@
       <c r="A9" s="16" t="n"/>
       <c r="B9" s="17" t="n"/>
       <c r="C9" s="25" t="n"/>
-      <c r="D9" s="27" t="inlineStr">
-        <is>
-          <t>헛개차</t>
-        </is>
-      </c>
-      <c r="E9" s="28" t="inlineStr">
-        <is>
-          <t>하윤경(하은경)</t>
-        </is>
-      </c>
-      <c r="F9" s="30" t="inlineStr">
-        <is>
-          <t>010-3996-1033</t>
-        </is>
-      </c>
-      <c r="G9" s="30" t="inlineStr">
-        <is>
-          <t>인천광역시 남동구 방축로 493 101동 603호(간석동 현대아파트)</t>
-        </is>
-      </c>
-      <c r="H9" s="28" t="inlineStr">
-        <is>
-          <t>신한은행 370-12-077565 하은경</t>
-        </is>
-      </c>
-      <c r="I9" s="28" t="inlineStr">
-        <is>
-          <t>771113-2057511</t>
-        </is>
-      </c>
-      <c r="J9" s="29" t="inlineStr">
-        <is>
-          <t>16560</t>
-        </is>
-      </c>
+      <c r="D9" s="27" t="n"/>
+      <c r="E9" s="28" t="n"/>
+      <c r="F9" s="30" t="n"/>
+      <c r="G9" s="30" t="n"/>
+      <c r="H9" s="28" t="n"/>
+      <c r="I9" s="28" t="n"/>
+      <c r="J9" s="29" t="n"/>
       <c r="K9" s="28" t="n"/>
       <c r="L9" s="28" t="n"/>
       <c r="M9" s="28" t="n"/>
@@ -2643,41 +1951,13 @@
       <c r="A10" s="16" t="n"/>
       <c r="B10" s="18" t="n"/>
       <c r="C10" s="19" t="n"/>
-      <c r="D10" s="27" t="inlineStr">
-        <is>
-          <t>헛개차</t>
-        </is>
-      </c>
-      <c r="E10" s="28" t="inlineStr">
-        <is>
-          <t>이일주(하은경)</t>
-        </is>
-      </c>
-      <c r="F10" s="30" t="inlineStr">
-        <is>
-          <t>010-6443-1033</t>
-        </is>
-      </c>
-      <c r="G10" s="30" t="inlineStr">
-        <is>
-          <t>경상북도 구미시 고아읍 문장로22길 5-19 201호</t>
-        </is>
-      </c>
-      <c r="H10" s="28" t="inlineStr">
-        <is>
-          <t>신한은행 370-12-077565 하은경</t>
-        </is>
-      </c>
-      <c r="I10" s="28" t="inlineStr">
-        <is>
-          <t>771113-2057511</t>
-        </is>
-      </c>
-      <c r="J10" s="29" t="inlineStr">
-        <is>
-          <t>16560</t>
-        </is>
-      </c>
+      <c r="D10" s="27" t="n"/>
+      <c r="E10" s="28" t="n"/>
+      <c r="F10" s="30" t="n"/>
+      <c r="G10" s="30" t="n"/>
+      <c r="H10" s="28" t="n"/>
+      <c r="I10" s="28" t="n"/>
+      <c r="J10" s="29" t="n"/>
       <c r="K10" s="28" t="n"/>
       <c r="L10" s="28" t="n"/>
       <c r="M10" s="28" t="n"/>
@@ -2688,41 +1968,13 @@
       <c r="A11" s="16" t="n"/>
       <c r="B11" s="18" t="n"/>
       <c r="C11" s="19" t="n"/>
-      <c r="D11" s="36" t="inlineStr">
-        <is>
-          <t>헛개차</t>
-        </is>
-      </c>
-      <c r="E11" s="36" t="inlineStr">
-        <is>
-          <t>강진희(강경희)</t>
-        </is>
-      </c>
-      <c r="F11" s="39" t="inlineStr">
-        <is>
-          <t>010-5751-7544</t>
-        </is>
-      </c>
-      <c r="G11" s="39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">인천광역시 남동구 구월동 1527 더블루시티 614호 </t>
-        </is>
-      </c>
-      <c r="H11" s="36" t="inlineStr">
-        <is>
-          <t>농협/3524347112243/강경희</t>
-        </is>
-      </c>
-      <c r="I11" s="36" t="inlineStr">
-        <is>
-          <t>920926-2551017</t>
-        </is>
-      </c>
-      <c r="J11" s="37" t="inlineStr">
-        <is>
-          <t>16560</t>
-        </is>
-      </c>
+      <c r="D11" s="36" t="n"/>
+      <c r="E11" s="36" t="n"/>
+      <c r="F11" s="39" t="n"/>
+      <c r="G11" s="39" t="n"/>
+      <c r="H11" s="36" t="n"/>
+      <c r="I11" s="36" t="n"/>
+      <c r="J11" s="37" t="n"/>
       <c r="K11" s="36" t="n"/>
       <c r="L11" s="36" t="n"/>
       <c r="M11" s="36" t="n"/>
@@ -2736,6 +1988,310 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <cols>
+    <col width="9" customWidth="1" style="1" min="1" max="2"/>
+    <col width="0.875" customWidth="1" style="1" min="3" max="3"/>
+    <col width="14.25" bestFit="1" customWidth="1" style="20" min="4" max="4"/>
+    <col width="10.125" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
+    <col width="15.125" customWidth="1" style="1" min="6" max="6"/>
+    <col width="62.25" bestFit="1" customWidth="1" style="1" min="7" max="7"/>
+    <col width="31.25" customWidth="1" style="1" min="8" max="8"/>
+    <col width="15.375" bestFit="1" customWidth="1" style="1" min="9" max="9"/>
+    <col width="24" bestFit="1" customWidth="1" style="1" min="10" max="10"/>
+    <col width="9" customWidth="1" style="1" min="11" max="16"/>
+    <col width="9" customWidth="1" style="1" min="17" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1" s="2" thickBot="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>번호</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>날짜</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="n"/>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>제품 및 내역</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>이름</t>
+        </is>
+      </c>
+      <c r="F1" s="7" t="inlineStr">
+        <is>
+          <t>연락처</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>주소</t>
+        </is>
+      </c>
+      <c r="H1" s="8" t="inlineStr">
+        <is>
+          <t>계좌번호</t>
+        </is>
+      </c>
+      <c r="I1" s="9" t="inlineStr">
+        <is>
+          <t>주민번호</t>
+        </is>
+      </c>
+      <c r="J1" s="8" t="inlineStr">
+        <is>
+          <t>금액</t>
+        </is>
+      </c>
+      <c r="K1" s="10" t="inlineStr">
+        <is>
+          <t>구매여부</t>
+        </is>
+      </c>
+      <c r="L1" s="11" t="inlineStr">
+        <is>
+          <t>포토리뷰</t>
+        </is>
+      </c>
+      <c r="M1" s="10" t="inlineStr">
+        <is>
+          <t>리뷰작성</t>
+        </is>
+      </c>
+      <c r="N1" s="7" t="inlineStr">
+        <is>
+          <t>캡쳐여부</t>
+        </is>
+      </c>
+      <c r="O1" s="7" t="inlineStr">
+        <is>
+          <t>비고</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" s="2" thickBot="1">
+      <c r="A2" s="16" t="n"/>
+      <c r="B2" s="17" t="n"/>
+      <c r="C2" s="17" t="n"/>
+      <c r="D2" s="27" t="inlineStr">
+        <is>
+          <t>헛개차</t>
+        </is>
+      </c>
+      <c r="E2" s="40" t="inlineStr">
+        <is>
+          <t>최지원</t>
+        </is>
+      </c>
+      <c r="F2" s="40" t="inlineStr">
+        <is>
+          <t>010-2343-1739</t>
+        </is>
+      </c>
+      <c r="G2" s="40" t="inlineStr">
+        <is>
+          <t>서울특별시 성북구 장위동 320 래미안장위퍼스트하이 502동 803호</t>
+        </is>
+      </c>
+      <c r="H2" s="40" t="inlineStr">
+        <is>
+          <t>하나은행/620238239229/최지원</t>
+        </is>
+      </c>
+      <c r="I2" s="40" t="inlineStr">
+        <is>
+          <t>12100107321953</t>
+        </is>
+      </c>
+      <c r="J2" s="41" t="inlineStr">
+        <is>
+          <t>16560</t>
+        </is>
+      </c>
+      <c r="K2" s="28" t="n"/>
+      <c r="L2" s="30" t="n"/>
+      <c r="M2" s="28" t="n"/>
+      <c r="N2" s="28" t="n"/>
+      <c r="O2" s="28" t="n"/>
+    </row>
+    <row r="3" ht="26.25" customHeight="1" s="2" thickBot="1">
+      <c r="A3" s="16" t="n"/>
+      <c r="B3" s="17" t="n"/>
+      <c r="C3" s="17" t="n"/>
+      <c r="D3" s="27" t="n"/>
+      <c r="E3" s="28" t="n"/>
+      <c r="F3" s="28" t="n"/>
+      <c r="G3" s="28" t="n"/>
+      <c r="H3" s="28" t="n"/>
+      <c r="I3" s="29" t="n"/>
+      <c r="J3" s="29" t="n"/>
+      <c r="K3" s="28" t="n"/>
+      <c r="L3" s="28" t="n"/>
+      <c r="M3" s="28" t="n"/>
+      <c r="N3" s="28" t="n"/>
+      <c r="O3" s="28" t="n"/>
+    </row>
+    <row r="4" ht="26.25" customHeight="1" s="2" thickBot="1">
+      <c r="A4" s="16" t="n"/>
+      <c r="B4" s="17" t="n"/>
+      <c r="C4" s="17" t="n"/>
+      <c r="D4" s="27" t="n"/>
+      <c r="E4" s="28" t="n"/>
+      <c r="F4" s="28" t="n"/>
+      <c r="G4" s="28" t="n"/>
+      <c r="H4" s="28" t="n"/>
+      <c r="I4" s="28" t="n"/>
+      <c r="J4" s="29" t="n"/>
+      <c r="K4" s="28" t="n"/>
+      <c r="L4" s="30" t="n"/>
+      <c r="M4" s="28" t="n"/>
+      <c r="N4" s="28" t="n"/>
+      <c r="O4" s="28" t="n"/>
+    </row>
+    <row r="5" ht="17.25" customHeight="1" s="2" thickBot="1">
+      <c r="A5" s="16" t="n"/>
+      <c r="B5" s="17" t="n"/>
+      <c r="C5" s="25" t="n"/>
+      <c r="D5" s="27" t="n"/>
+      <c r="E5" s="28" t="n"/>
+      <c r="F5" s="28" t="n"/>
+      <c r="G5" s="28" t="n"/>
+      <c r="H5" s="28" t="n"/>
+      <c r="I5" s="28" t="n"/>
+      <c r="J5" s="29" t="n"/>
+      <c r="K5" s="28" t="n"/>
+      <c r="L5" s="28" t="n"/>
+      <c r="M5" s="28" t="n"/>
+      <c r="N5" s="28" t="n"/>
+      <c r="O5" s="28" t="n"/>
+    </row>
+    <row r="6" ht="17.25" customHeight="1" s="2" thickBot="1">
+      <c r="A6" s="16" t="n"/>
+      <c r="B6" s="17" t="n"/>
+      <c r="C6" s="25" t="n"/>
+      <c r="D6" s="27" t="n"/>
+      <c r="E6" s="28" t="n"/>
+      <c r="F6" s="28" t="n"/>
+      <c r="G6" s="42" t="n"/>
+      <c r="H6" s="28" t="n"/>
+      <c r="I6" s="28" t="n"/>
+      <c r="J6" s="29" t="n"/>
+      <c r="K6" s="28" t="n"/>
+      <c r="L6" s="28" t="n"/>
+      <c r="M6" s="28" t="n"/>
+      <c r="N6" s="28" t="n"/>
+      <c r="O6" s="28" t="n"/>
+    </row>
+    <row r="7" ht="17.25" customHeight="1" s="2" thickBot="1">
+      <c r="A7" s="16" t="n"/>
+      <c r="B7" s="17" t="n"/>
+      <c r="C7" s="25" t="n"/>
+      <c r="D7" s="27" t="n"/>
+      <c r="E7" s="28" t="n"/>
+      <c r="F7" s="43" t="n"/>
+      <c r="G7" s="44" t="n"/>
+      <c r="H7" s="28" t="n"/>
+      <c r="I7" s="28" t="n"/>
+      <c r="J7" s="29" t="n"/>
+      <c r="K7" s="28" t="n"/>
+      <c r="L7" s="30" t="n"/>
+      <c r="M7" s="28" t="n"/>
+      <c r="N7" s="28" t="n"/>
+      <c r="O7" s="28" t="n"/>
+    </row>
+    <row r="8" ht="26.25" customHeight="1" s="2" thickBot="1">
+      <c r="A8" s="16" t="n"/>
+      <c r="B8" s="17" t="n"/>
+      <c r="C8" s="25" t="n"/>
+      <c r="D8" s="27" t="n"/>
+      <c r="E8" s="28" t="n"/>
+      <c r="F8" s="43" t="n"/>
+      <c r="G8" s="44" t="n"/>
+      <c r="H8" s="44" t="n"/>
+      <c r="I8" s="28" t="n"/>
+      <c r="J8" s="29" t="n"/>
+      <c r="K8" s="28" t="n"/>
+      <c r="L8" s="28" t="n"/>
+      <c r="M8" s="28" t="n"/>
+      <c r="N8" s="28" t="n"/>
+      <c r="O8" s="28" t="n"/>
+    </row>
+    <row r="9" ht="17.25" customHeight="1" s="2" thickBot="1">
+      <c r="A9" s="16" t="n"/>
+      <c r="B9" s="17" t="n"/>
+      <c r="C9" s="25" t="n"/>
+      <c r="D9" s="27" t="n"/>
+      <c r="E9" s="28" t="n"/>
+      <c r="F9" s="28" t="n"/>
+      <c r="G9" s="28" t="n"/>
+      <c r="H9" s="28" t="n"/>
+      <c r="I9" s="28" t="n"/>
+      <c r="J9" s="29" t="n"/>
+      <c r="K9" s="28" t="n"/>
+      <c r="L9" s="30" t="n"/>
+      <c r="M9" s="28" t="n"/>
+      <c r="N9" s="28" t="n"/>
+      <c r="O9" s="28" t="n"/>
+    </row>
+    <row r="10" ht="17.25" customHeight="1" s="2" thickBot="1">
+      <c r="A10" s="16" t="n"/>
+      <c r="B10" s="18" t="n"/>
+      <c r="C10" s="19" t="n"/>
+      <c r="D10" s="27" t="n"/>
+      <c r="E10" s="28" t="n"/>
+      <c r="F10" s="28" t="n"/>
+      <c r="G10" s="28" t="n"/>
+      <c r="H10" s="28" t="n"/>
+      <c r="I10" s="28" t="n"/>
+      <c r="J10" s="29" t="n"/>
+      <c r="K10" s="30" t="n"/>
+      <c r="L10" s="30" t="n"/>
+      <c r="M10" s="30" t="n"/>
+      <c r="N10" s="30" t="n"/>
+      <c r="O10" s="28" t="n"/>
+    </row>
+    <row r="11" ht="17.25" customHeight="1" s="2" thickBot="1">
+      <c r="A11" s="16" t="n"/>
+      <c r="B11" s="18" t="n"/>
+      <c r="C11" s="19" t="n"/>
+      <c r="D11" s="45" t="n"/>
+      <c r="E11" s="45" t="n"/>
+      <c r="F11" s="45" t="n"/>
+      <c r="G11" s="45" t="n"/>
+      <c r="H11" s="45" t="n"/>
+      <c r="I11" s="45" t="n"/>
+      <c r="J11" s="46" t="n"/>
+      <c r="K11" s="26" t="n"/>
+      <c r="L11" s="26" t="n"/>
+      <c r="M11" s="26" t="n"/>
+      <c r="N11" s="26" t="n"/>
+      <c r="O11" s="26" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3036,7 +2592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3349,13 +2905,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="D2:J2"/>
+  <dimension ref="D2:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3400,52 +2956,15 @@
         </is>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="D2:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="2">
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>목베개_네이버</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>김성실</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>농협 23501352091149 김성실</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>970208-2250213</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>59600</t>
-        </is>
-      </c>
-    </row>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3457,14 +2976,51 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="D2:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>목베개_네이버</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>김성실</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>농협 23501352091149 김성실</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>970208-2250213</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>59600</t>
+        </is>
+      </c>
+    </row>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -3475,14 +3031,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="D3:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -3493,14 +3059,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="D3:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>